--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45791.80519675926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45973</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>44425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>45093</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>45588.61237268519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>45756</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44305</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44284</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>44425</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>44344</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44420.37090277778</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>44298</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>45894</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45921.85089120371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>45225</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>45559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45471.51613425926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>44980.66219907408</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45559</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44998</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>45012</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45152</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>45457.46716435185</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44239</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44329.68653935185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44370</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44825.86511574074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44645</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44386.67550925926</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44307</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44649</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44386.56210648148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44880.59434027778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44630.70325231482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44860</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44880.59320601852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44316</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44432</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44676</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44510.5746875</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44504</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44848</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44827</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44657.85196759259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44581</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44592.40423611111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44501</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>44753</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>44845.50974537037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>44462.89429398148</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44447.38721064815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>44369.31922453704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>44608.45952546296</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>44860.34149305556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>44790.48775462963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>44693.36934027778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44825.83590277778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44762.42130787037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44258</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44300</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44273.51204861111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44279.89136574074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>44311.88395833333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44311.35585648148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44825.83820601852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44336.82618055555</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44343</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44375</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44245.3309837963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44271</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44447.47489583334</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44565.30391203704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44300.3524537037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44490</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44284.76295138889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44474</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44286.44738425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>44286.49776620371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44468</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44455.48934027777</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44596</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44374</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44576.36556712963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44298.54538194444</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44385</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44608.4568287037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>44326</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>44762</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>44762.45920138889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44882.76350694444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44420.36637731481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44420.37143518519</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44420.37256944444</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44532.34480324074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44434.39060185185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44762.44857638889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44311.8830787037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>44311</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>44494.78745370371</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>44307</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>44414.41921296297</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>44806.618125</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>44518.47239583333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>44501.54438657407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>44845.45305555555</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>44872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>44886.65388888889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>44630</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>44694</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>44504</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>44817</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44853.64434027778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44638</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>44299.70222222222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>44812.81410879629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>44371</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44343.4578587963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>44386</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>44277.92020833334</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>44300.34657407407</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>44300</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>44637</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>44258</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>44600.65211805556</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>44445.36540509259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>44756</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>44539</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44455.5429050926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>44586.4681712963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44713</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44455.45295138889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>44865</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44762.44337962963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>44257</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>44627</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44630.33892361111</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>45706</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>45775</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>45432</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>44903</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>45602.65599537037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>45251</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>45328</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44307</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44903</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>45121.74644675926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45012</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45677</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>45071.34355324074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>44617</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>45747.70481481482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>45261.67270833333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>44987.6947337963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>45328</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>45196</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>45012</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>45588.57842592592</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>45621</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44944.77319444445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>45341.70528935185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>45600</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>45049</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44987</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>45310.64620370371</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>45409.30665509259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>44627</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>45680.42825231481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>45238.30886574074</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>45551</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>45692</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>45098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44278</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>45625</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>45600.49347222222</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>45128</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>45691.49791666667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>45482</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>45482</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>45482</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>45670.47119212963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>45503</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>45739.350625</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44987.69130787037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44987.6924074074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>45714</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44998</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>45363.44003472223</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>45600</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>45061</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>45432.29604166667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>45201</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>45201</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>45115.29798611111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>45169</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>45672.71278935186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44908.36387731481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44973</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>45078</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44245</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>45597.59402777778</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>45194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>45247</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45579.48168981481</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45490</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45012</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>45884</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>45803</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>45884</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>45725.28071759259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>45147</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44880.5609837963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>45717.4892824074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>45785</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>45119</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>44939</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>45889.35428240741</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>45888.84180555555</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>44822.36966435185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>45719</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>45888.84373842592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>45889</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>45889.46090277778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>45811.29984953703</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>45426</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>45888.46236111111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>45812.72872685185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>45889.75552083334</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>45891.56857638889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>45891.57991898148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>45813.42714120371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45892.64878472222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>45892.64423611111</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>45894</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>45884</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>45897.40251157407</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>45895.87712962963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>45440.28597222222</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>45440.28682870371</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44655</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>45670.40509259259</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>45896.67730324074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>45532.37809027778</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>45299.49069444444</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>45615.28113425926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44754.30981481481</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>45898.36068287037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44884.65101851852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>45902</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45807.34241898148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45413.27694444444</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>45821.3246875</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>45903.32563657407</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>45841</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45618.37984953704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>45414.3215625</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44312</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>45820</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44378</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>45841</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>45749.91572916666</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17025,7 +17025,7 @@
         <v>45722.83328703704</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>45743.29534722222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>45823.52744212963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>45823.53152777778</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>45043.59479166667</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>45793.62430555555</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>45823.5349537037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17424,7 +17424,7 @@
         <v>45843.54188657407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17481,7 +17481,7 @@
         <v>45807.34141203704</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
         <v>45820</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17595,7 +17595,7 @@
         <v>45402.33155092593</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17652,7 +17652,7 @@
         <v>44600.48814814815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>45824.6219212963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
         <v>45910.29336805556</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>45910.30194444444</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>45827.38158564815</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>45903</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>45910</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>45827.58221064815</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45915.64118055555</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44427.49288194445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>45915.65357638889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>45646.35376157407</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>45915.6408912037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>45915.64569444444</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44966</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>45099</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>45915.64053240741</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>45915.6357175926</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>45915.6362037037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>45827.57775462963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18842,7 +18842,7 @@
         <v>45006</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18899,7 +18899,7 @@
         <v>45916.85170138889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18956,7 +18956,7 @@
         <v>45825.84473379629</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
         <v>45916.85402777778</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>45719</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>45118</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>45916.8565162037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>45918.38861111111</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>45918.62711805556</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>45754</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19412,7 +19412,7 @@
         <v>45832.4716550926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19469,7 +19469,7 @@
         <v>45195</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19526,7 +19526,7 @@
         <v>45920.31640046297</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
         <v>45832.59886574074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>45923</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>45925.41440972222</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>45833.74839120371</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19811,7 +19811,7 @@
         <v>45714.54234953703</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>45192.6025</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>45706.45446759259</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45225</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45807.36202546296</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45646.61280092593</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45929.74423611111</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45280.80202546297</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45480.33395833334</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45835.50689814815</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45835.52457175926</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>45360.48655092593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>45559</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>45559.38451388889</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>45930</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>45932.60671296297</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45932.46606481481</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>45932.46914351852</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>45932.47091435185</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>45838</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>45838</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>45932.59349537037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21100,7 +21100,7 @@
         <v>45932.60410879629</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45932.61268518519</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>45625</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>45932.59810185185</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>45838</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45932.4967824074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>45932.50133101852</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>45932.50635416667</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         <v>45932.49903935185</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21648,7 +21648,7 @@
         <v>45743.47136574074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45460.5112962963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>45934.301875</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45840.43037037037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45937.59077546297</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
         <v>45357.46925925926</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21995,7 +21995,7 @@
         <v>45937.60030092593</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>45843.43822916667</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22109,7 +22109,7 @@
         <v>45104.99836805555</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>45845.43273148148</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>45537</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45845.48578703704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>45280</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>45843</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         <v>45280</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
         <v>45846.34766203703</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22570,7 +22570,7 @@
         <v>45846.35939814815</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>45583.69092592593</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45104</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45947.65105324074</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45947.65548611111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45841</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45111.7070949074</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45950.32462962963</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>44848</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>45856.70304398148</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>45714</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23197,7 +23197,7 @@
         <v>45950.38899305555</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23254,7 +23254,7 @@
         <v>44916</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>45951.32760416667</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>45387.66466435185</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>45713.8870949074</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>45615.28605324074</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>45505</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>45954</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23658,7 +23658,7 @@
         <v>45954</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>45266.36935185185</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>45616.47561342592</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45053</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45958</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>45958</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>45958</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>45958</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>45958</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>45429</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>45775</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>45646.37528935185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>45597.43244212963</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
         <v>45653</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>45852</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>45630.88818287037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>45630.89168981482</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>44944</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>45259</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>45959</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>45019.40739583333</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>44756</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45877</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>45085.29188657407</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>45876.65175925926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>45012</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>45462</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>44253</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>45964</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25388,7 +25388,7 @@
         <v>44966.43552083334</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>45272.47962962963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>45299.4966087963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>45432.29446759259</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44966.37247685185</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>45001</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>45001</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>45715.76424768518</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>45505</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>45972</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>45359.58695601852</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>45090.84431712963</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>45884</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26139,7 +26139,7 @@
         <v>45589.89728009259</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>45194</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>45194.34755787037</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26310,7 +26310,7 @@
         <v>45974.33921296296</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>44279</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>45884</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44917.46122685185</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>45168.85425925926</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45071.43460648148</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45975</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>45757.56072916667</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44375</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>45978.69021990741</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>45597.42960648148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>45197</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>45978.6915162037</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>45099.46986111111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44341</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>45360.3878125</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44565.36917824074</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44980</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>44586.4669212963</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>45981</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>45610</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>44595</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>45985.4794675926</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>44754.31150462963</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>44753.4906712963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>45741.35186342592</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27807,7 +27807,7 @@
         <v>45166</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27864,7 +27864,7 @@
         <v>45001.84034722222</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27921,7 +27921,7 @@
         <v>45985.50297453703</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>45985.35938657408</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28035,7 +28035,7 @@
         <v>45646.58506944445</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28092,7 +28092,7 @@
         <v>45002</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28149,7 +28149,7 @@
         <v>45986.64931712963</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28206,7 +28206,7 @@
         <v>45460.40002314815</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28263,7 +28263,7 @@
         <v>45986</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28320,7 +28320,7 @@
         <v>45986</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>45246.29589120371</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>45194</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>45299.6503125</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>45001</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>45036</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>45357.69003472223</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>45054.52789351852</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>45555.57261574074</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>45394</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>45581.33034722223</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>45402.33591435185</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>45381.30424768518</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>45992</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>45169.59612268519</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>44704</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>45354.84703703703</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>45993.29938657407</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>45009.37361111111</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>45009.37462962963</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>45995.28260416666</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>45995.32793981482</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>45702.56728009259</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>45855.33107638889</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>45995.28373842593</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         <v>45588.62737268519</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>45278.54491898148</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>45602.53005787037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>45754</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>45754</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>44987.37960648148</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>45117</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30154,7 +30154,7 @@
         <v>46042.49203703704</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30211,7 +30211,7 @@
         <v>46034</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30268,7 +30268,7 @@
         <v>45480.34194444444</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30325,7 +30325,7 @@
         <v>45302</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>46042.50414351852</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>45327.43086805556</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>44729</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>46000.54221064815</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>45619.32981481482</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>45741.3621875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>45714.53596064815</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>46043.57184027778</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>45103</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>45337</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44917.47427083334</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>46048.65925925926</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>46046.27957175926</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>44925.53983796296</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>46007</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>46007.45184027778</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>46007</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>46007.44025462963</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>46007</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>44778.5827662037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>46050.57241898148</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>46051.35024305555</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44494.57201388889</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>44973</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>44966.37489583333</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>44489</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>46049.55684027778</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>44762.39896990741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>46051.35872685185</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>45549.30641203704</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45549</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>46052.43975694444</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>44739.46486111111</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>44753.48469907408</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>45560.64267361111</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>44862</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>46052.43885416666</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>45470.61119212963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>45086.60350694445</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>45310.6625</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>45040</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>45757</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>44829.96320601852</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>44956</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>45166.8479050926</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>44882.76155092593</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>45534.43813657408</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44893</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>45610.32993055556</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>44972</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>44882.76806712963</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>45009</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>45673</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>45062</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33495,7 +33495,7 @@
         <v>46059.57993055556</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33552,7 +33552,7 @@
         <v>46059.59456018519</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>46058.39168981482</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>45316</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>45342</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33780,7 +33780,7 @@
         <v>44713.65959490741</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>44439</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33894,7 +33894,7 @@
         <v>44314.59100694444</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33951,7 +33951,7 @@
         <v>45426</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34008,7 +34008,7 @@
         <v>45588.58637731482</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>45194</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34127,7 +34127,7 @@
         <v>45253</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34184,7 +34184,7 @@
         <v>45621.31460648148</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34241,7 +34241,7 @@
         <v>45559</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44817.34164351852</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45363.36378472222</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45559</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34479,7 +34479,7 @@
         <v>45236.34158564815</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34536,7 +34536,7 @@
         <v>45328</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34593,7 +34593,7 @@
         <v>45328</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34650,7 +34650,7 @@
         <v>45719</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>45360.39351851852</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34764,7 +34764,7 @@
         <v>45360</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         <v>45104</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34878,7 +34878,7 @@
         <v>45775</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34935,7 +34935,7 @@
         <v>45105</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>45075</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44762</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         <v>44945.77724537037</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44606</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>45579</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44307</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44307</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>45178.33199074074</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>45068</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>45536.30668981482</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>45072.40635416667</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>45196</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>45195</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>45082</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35805,7 +35805,7 @@
         <v>45193</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35862,7 +35862,7 @@
         <v>45264.46787037037</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>45085</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>45549</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>45091.57729166667</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>45110</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>45152.49695601852</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36209,7 +36209,7 @@
         <v>45755</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>45139.70096064815</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         <v>45169</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>45118</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>45178</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36494,7 +36494,7 @@
         <v>45062</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36556,7 +36556,7 @@
         <v>45201.33722222222</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36613,7 +36613,7 @@
         <v>45195</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36670,7 +36670,7 @@
         <v>45195</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36727,7 +36727,7 @@
         <v>45027.4649074074</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36784,7 +36784,7 @@
         <v>45602.76697916666</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36841,7 +36841,7 @@
         <v>45378</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>45436.42820601852</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         <v>45350.6553125</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37012,7 +37012,7 @@
         <v>45350.66047453704</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37069,7 +37069,7 @@
         <v>45303</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37126,7 +37126,7 @@
         <v>45303</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>44974.86513888889</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>45560.64489583333</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37302,7 +37302,7 @@
         <v>44806</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37359,7 +37359,7 @@
         <v>44992.57134259259</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37416,7 +37416,7 @@
         <v>44992</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37478,7 +37478,7 @@
         <v>45246</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37535,7 +37535,7 @@
         <v>45629.85528935185</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37592,7 +37592,7 @@
         <v>44565.43053240741</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37649,7 +37649,7 @@
         <v>45237</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37706,7 +37706,7 @@
         <v>45190</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37763,7 +37763,7 @@
         <v>44774</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37820,7 +37820,7 @@
         <v>45545.91209490741</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37877,7 +37877,7 @@
         <v>44236</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37934,7 +37934,7 @@
         <v>45303</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37991,7 +37991,7 @@
         <v>45430.45837962963</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38048,7 +38048,7 @@
         <v>44956.49877314815</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38105,7 +38105,7 @@
         <v>45342</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38162,7 +38162,7 @@
         <v>45342.73237268518</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38219,7 +38219,7 @@
         <v>44973</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38281,7 +38281,7 @@
         <v>45428.28188657408</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38338,7 +38338,7 @@
         <v>45673</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         <v>45717.49084490741</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38452,7 +38452,7 @@
         <v>45717.49361111111</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38509,7 +38509,7 @@
         <v>45373.30533564815</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>45724.30193287037</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38623,7 +38623,7 @@
         <v>44651</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38680,7 +38680,7 @@
         <v>45706</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38737,7 +38737,7 @@
         <v>45714</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38794,7 +38794,7 @@
         <v>45560.66334490741</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>45408.71054398148</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38913,7 +38913,7 @@
         <v>45097.30394675926</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38970,7 +38970,7 @@
         <v>45189</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39027,7 +39027,7 @@
         <v>45051.32775462963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39084,7 +39084,7 @@
         <v>44888.5009375</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         <v>45006</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39198,7 +39198,7 @@
         <v>45139.68210648148</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39255,7 +39255,7 @@
         <v>45076.54711805555</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
         <v>44819.91069444444</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>44658.63398148148</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         <v>45685.85379629629</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39483,7 +39483,7 @@
         <v>45545.3380787037</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39540,7 +39540,7 @@
         <v>45119.78310185186</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39597,7 +39597,7 @@
         <v>45201.33636574074</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39654,7 +39654,7 @@
         <v>44992.64908564815</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39716,7 +39716,7 @@
         <v>45063</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45063</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39840,7 +39840,7 @@
         <v>45594.5827662037</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39897,7 +39897,7 @@
         <v>44748.82912037037</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>45078</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>45327.55049768519</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40068,7 +40068,7 @@
         <v>45600.49008101852</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40125,7 +40125,7 @@
         <v>44466</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40182,7 +40182,7 @@
         <v>44980</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40244,7 +40244,7 @@
         <v>45559</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44950.50173611111</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>45722.79815972222</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>45058</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>45560.64944444445</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40539,7 +40539,7 @@
         <v>45194</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40596,7 +40596,7 @@
         <v>45587.59994212963</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         <v>45118</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40710,7 +40710,7 @@
         <v>45772.28616898148</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40767,7 +40767,7 @@
         <v>45057.76679398148</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40824,7 +40824,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40881,7 +40881,7 @@
         <v>45012</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40938,7 +40938,7 @@
         <v>44902.48003472222</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40995,7 +40995,7 @@
         <v>45238</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41052,7 +41052,7 @@
         <v>45728</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41109,7 +41109,7 @@
         <v>45728</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41166,7 +41166,7 @@
         <v>45741</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41228,7 +41228,7 @@
         <v>45545.69033564815</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41290,7 +41290,7 @@
         <v>45590</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         <v>45229.43825231482</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41404,7 +41404,7 @@
         <v>45646.60135416667</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41461,7 +41461,7 @@
         <v>45104</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41523,7 +41523,7 @@
         <v>45104</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41585,7 +41585,7 @@
         <v>45574.3331712963</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41642,7 +41642,7 @@
         <v>45527.36466435185</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41699,7 +41699,7 @@
         <v>45743</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41756,7 +41756,7 @@
         <v>45743</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41813,7 +41813,7 @@
         <v>45531.73302083334</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41870,7 +41870,7 @@
         <v>44432</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41927,7 +41927,7 @@
         <v>45560</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41984,7 +41984,7 @@
         <v>44326</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42041,7 +42041,7 @@
         <v>45691</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42098,7 +42098,7 @@
         <v>45394</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42155,7 +42155,7 @@
         <v>45608.66543981482</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42212,7 +42212,7 @@
         <v>44966.755</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42269,7 +42269,7 @@
         <v>45104</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42331,7 +42331,7 @@
         <v>45502</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42388,7 +42388,7 @@
         <v>45785</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42450,7 +42450,7 @@
         <v>45567</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42507,7 +42507,7 @@
         <v>45785</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42569,7 +42569,7 @@
         <v>44419</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42631,7 +42631,7 @@
         <v>45527.36177083333</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42688,7 +42688,7 @@
         <v>45546</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42745,7 +42745,7 @@
         <v>45724.30535879629</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42802,7 +42802,7 @@
         <v>45579.47976851852</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         <v>44434.3265625</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42916,7 +42916,7 @@
         <v>45530</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42973,7 +42973,7 @@
         <v>45646.29060185186</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43030,7 +43030,7 @@
         <v>45699.5039699074</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43087,7 +43087,7 @@
         <v>45562.53795138889</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43144,7 +43144,7 @@
         <v>45594</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43206,7 +43206,7 @@
         <v>45551</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43263,7 +43263,7 @@
         <v>45280</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43320,7 +43320,7 @@
         <v>45791.70444444445</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43377,7 +43377,7 @@
         <v>45789.83464120371</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43434,7 +43434,7 @@
         <v>45545</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43491,7 +43491,7 @@
         <v>45792</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43548,7 +43548,7 @@
         <v>45791.81699074074</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43610,7 +43610,7 @@
         <v>45792</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>

--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45791.80519675926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45973</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>44425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>45093</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>45588.61237268519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>45756</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>44305</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44284</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>44425</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>44344</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44420.37090277778</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>44298</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>45894</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45921.85089120371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>45225</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>45559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>45471.51613425926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>44980.66219907408</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45559</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44998</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>45012</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45152</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>45457.46716435185</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>44239</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>44319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>44546</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>44329.68653935185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>44370</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44825.86511574074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44645</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44386.67550925926</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
         <v>44307</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         <v>44649</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44386.56210648148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44880.59434027778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44630.70325231482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44860</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44880.59320601852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44316</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44432</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44676</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44510.5746875</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44504</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44848</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44827</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44657.85196759259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44581</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44592.40423611111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44501</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>44753</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>44845.50974537037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>44462.89429398148</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44447.38721064815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>44369.31922453704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>44608.45952546296</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>44860.34149305556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>44790.48775462963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>44693.36934027778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44825.83590277778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44762.42130787037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44258</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44300</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44273.51204861111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44340</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44279.89136574074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>44311.88395833333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44311.35585648148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44825.83820601852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44336.82618055555</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44343</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44375</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44245.3309837963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44271</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44447.47489583334</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44565.30391203704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44503</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44300.3524537037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44490</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44284.76295138889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>44474</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>44286.44738425926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>44286.49776620371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>44468</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44455.48934027777</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44596</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44374</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44576.36556712963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>44298.54538194444</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44385</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44608.4568287037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>44326</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>44762</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>44762.45920138889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44882.76350694444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44420.36637731481</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44420.37143518519</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44420.37256944444</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44532.34480324074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>44434.39060185185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44762.44857638889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44311.8830787037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>44311</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>44494.78745370371</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>44307</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>44414.41921296297</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>44806.618125</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>44518.47239583333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>44501.54438657407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>44845.45305555555</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>44872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>44886.65388888889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>44630</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>44694</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>44504</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>44817</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44853.64434027778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>44638</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>44299.70222222222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>44812.81410879629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>44371</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44343.4578587963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>44386</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         <v>44277.92020833334</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         <v>44300.34657407407</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>44300</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>44637</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>44258</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>44600.65211805556</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>44445.36540509259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>44756</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         <v>44539</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44455.5429050926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>44586.4681712963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>44713</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44455.45295138889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>44865</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44762.44337962963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>44257</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>44627</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44630.33892361111</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>45706</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>45775</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>45432</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>44903</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>45602.65599537037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>45251</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>45328</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>44307</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>44903</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>45121.74644675926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45012</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45677</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         <v>45071.34355324074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         <v>44617</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         <v>45747.70481481482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>45261.67270833333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>44987.6947337963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>45328</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>45196</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>45012</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>45588.57842592592</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>45621</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44944.77319444445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>45341.70528935185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>45600</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>45049</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44987</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>45310.64620370371</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>45409.30665509259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>44627</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>45680.42825231481</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>45238.30886574074</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         <v>45551</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>45692</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44739</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>45098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11783,7 +11783,7 @@
         <v>44278</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11840,7 +11840,7 @@
         <v>45625</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>45600.49347222222</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>45128</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>45691.49791666667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12068,7 +12068,7 @@
         <v>45482</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>45482</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>45482</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>45670.47119212963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12296,7 +12296,7 @@
         <v>45503</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
         <v>45739.350625</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         <v>44987.69130787037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         <v>44987.6924074074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>45714</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
         <v>44998</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12638,7 +12638,7 @@
         <v>45363.44003472223</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>45600</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12752,7 +12752,7 @@
         <v>45061</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
         <v>45432.29604166667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>45201</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>45201</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12980,7 +12980,7 @@
         <v>45115.29798611111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>45169</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>45672.71278935186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>44908.36387731481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44973</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>45078</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>44245</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>45597.59402777778</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13441,7 +13441,7 @@
         <v>45194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13498,7 +13498,7 @@
         <v>45247</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>45579.48168981481</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         <v>45490</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>45012</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>45884</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>45803</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>45884</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>45725.28071759259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>45147</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>44880.5609837963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>45717.4892824074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>45785</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>45119</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>44939</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>45889.35428240741</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>45888.84180555555</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>44822.36966435185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         <v>45719</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>45888.84373842592</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>45889</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>45889.46090277778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>45811.29984953703</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>45426</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>45888.46236111111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>45812.72872685185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>45889.75552083334</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>45891.56857638889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>45891.57991898148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>45813.42714120371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45892.64878472222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>45892.64423611111</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>45894</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>45884</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         <v>45897.40251157407</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         <v>45895.87712962963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>45440.28597222222</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>45440.28682870371</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44655</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>45670.40509259259</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>45896.67730324074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>44957</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>45532.37809027778</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>45299.49069444444</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>45615.28113425926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44754.30981481481</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>45898.36068287037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44884.65101851852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>45902</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45807.34241898148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>45413.27694444444</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>45821.3246875</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>45903.32563657407</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>45841</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>45618.37984953704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>45414.3215625</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44312</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>45820</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44378</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>45841</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>45749.91572916666</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17025,7 +17025,7 @@
         <v>45722.83328703704</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17082,7 +17082,7 @@
         <v>45743.29534722222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>45823.52744212963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>45823.53152777778</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>45043.59479166667</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>45793.62430555555</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>45823.5349537037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17424,7 +17424,7 @@
         <v>45843.54188657407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17481,7 +17481,7 @@
         <v>45807.34141203704</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
         <v>45820</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17595,7 +17595,7 @@
         <v>45402.33155092593</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17652,7 +17652,7 @@
         <v>44600.48814814815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>45824.6219212963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
         <v>45910.29336805556</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>45910.30194444444</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>45827.38158564815</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>45903</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>45910</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>45827.58221064815</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45915.64118055555</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>44427.49288194445</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>45915.65357638889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>45646.35376157407</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>45915.6408912037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>45915.64569444444</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>44966</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>45099</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>45915.64053240741</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>45915.6357175926</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>45915.6362037037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18780,7 +18780,7 @@
         <v>45827.57775462963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18842,7 +18842,7 @@
         <v>45006</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18899,7 +18899,7 @@
         <v>45916.85170138889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18956,7 +18956,7 @@
         <v>45825.84473379629</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
         <v>45916.85402777778</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>45719</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>45118</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>45916.8565162037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>45918.38861111111</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>45918.62711805556</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>45754</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19412,7 +19412,7 @@
         <v>45832.4716550926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19469,7 +19469,7 @@
         <v>45195</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19526,7 +19526,7 @@
         <v>45920.31640046297</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
         <v>45832.59886574074</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>45923</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>45925.41440972222</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>45833.74839120371</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19811,7 +19811,7 @@
         <v>45714.54234953703</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>45192.6025</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>45706.45446759259</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45225</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45807.36202546296</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45646.61280092593</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45929.74423611111</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>45280.80202546297</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45480.33395833334</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45835.50689814815</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45835.52457175926</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>45360.48655092593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>45559</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>45559.38451388889</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>45930</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>45932.60671296297</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45932.46606481481</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         <v>45932.46914351852</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>45932.47091435185</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>45838</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>45838</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>45932.59349537037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21100,7 +21100,7 @@
         <v>45932.60410879629</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45932.61268518519</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>45625</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>45932.59810185185</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>45838</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45932.4967824074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>45932.50133101852</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>45932.50635416667</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         <v>45932.49903935185</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21648,7 +21648,7 @@
         <v>45743.47136574074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45460.5112962963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>45934.301875</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45840.43037037037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45937.59077546297</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
         <v>45357.46925925926</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21995,7 +21995,7 @@
         <v>45937.60030092593</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>45843.43822916667</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22109,7 +22109,7 @@
         <v>45104.99836805555</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>45845.43273148148</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>45537</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45845.48578703704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>45280</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>45843</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         <v>45280</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
         <v>45846.34766203703</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22570,7 +22570,7 @@
         <v>45846.35939814815</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>45583.69092592593</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45104</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45947.65105324074</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45947.65548611111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45841</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45111.7070949074</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45950.32462962963</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>44848</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>45856.70304398148</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>45714</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23197,7 +23197,7 @@
         <v>45950.38899305555</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23254,7 +23254,7 @@
         <v>44916</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>45951.32760416667</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>45387.66466435185</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>45713.8870949074</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>45615.28605324074</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>45505</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>45954</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23658,7 +23658,7 @@
         <v>45954</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>45266.36935185185</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>45616.47561342592</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45053</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45958</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>45958</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>45958</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>45958</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>45958</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>45429</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>45775</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>45646.37528935185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>45597.43244212963</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
         <v>45653</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>45852</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>45630.88818287037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>45630.89168981482</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>44944</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>45259</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>45959</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>45019.40739583333</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>44722</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>44756</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45877</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>45085.29188657407</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>45876.65175925926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>45012</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>45462</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>44253</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>45964</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25388,7 +25388,7 @@
         <v>44966.43552083334</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25445,7 +25445,7 @@
         <v>45272.47962962963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>45299.4966087963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>45432.29446759259</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44966.37247685185</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>45001</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>45001</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>45715.76424768518</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25844,7 +25844,7 @@
         <v>45505</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>45972</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>45359.58695601852</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>45090.84431712963</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>45884</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26139,7 +26139,7 @@
         <v>45589.89728009259</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>45194</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>45194.34755787037</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26310,7 +26310,7 @@
         <v>45974.33921296296</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>44279</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>45884</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44917.46122685185</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>45168.85425925926</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45071.43460648148</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45975</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>45757.56072916667</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44375</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>45978.69021990741</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>45597.42960648148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>45197</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>45978.6915162037</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>45099.46986111111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44341</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>45360.3878125</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44565.36917824074</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44980</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>44586.4669212963</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>45981</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>45610</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>44595</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>45985.4794675926</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>44754.31150462963</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>44753.4906712963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         <v>45741.35186342592</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27807,7 +27807,7 @@
         <v>45166</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27864,7 +27864,7 @@
         <v>45001.84034722222</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27921,7 +27921,7 @@
         <v>45985.50297453703</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27978,7 +27978,7 @@
         <v>45985.35938657408</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28035,7 +28035,7 @@
         <v>45646.58506944445</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28092,7 +28092,7 @@
         <v>45002</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28149,7 +28149,7 @@
         <v>45986.64931712963</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28206,7 +28206,7 @@
         <v>45460.40002314815</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28263,7 +28263,7 @@
         <v>45986</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28320,7 +28320,7 @@
         <v>45986</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>45246.29589120371</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>45194</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>45299.6503125</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>45001</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>45036</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>45357.69003472223</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>45054.52789351852</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>45555.57261574074</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>45394</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>45581.33034722223</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>45402.33591435185</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>45381.30424768518</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>45992</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>45169.59612268519</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>44704</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>45354.84703703703</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>45993.29938657407</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>45009.37361111111</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>45009.37462962963</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>45995.28260416666</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>45995.32793981482</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>45702.56728009259</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>45855.33107638889</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>45995.28373842593</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         <v>45588.62737268519</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>45278.54491898148</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>45602.53005787037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>45754</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>45754</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>44987.37960648148</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>45117</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30154,7 +30154,7 @@
         <v>46042.49203703704</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30211,7 +30211,7 @@
         <v>46034</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30268,7 +30268,7 @@
         <v>45480.34194444444</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30325,7 +30325,7 @@
         <v>45302</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>46042.50414351852</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>45327.43086805556</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>44729</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>46000.54221064815</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>45619.32981481482</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>45741.3621875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>45714.53596064815</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>46043.57184027778</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>45103</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>45337</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>44917.47427083334</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>46048.65925925926</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>46046.27957175926</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>44925.53983796296</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>46007</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>46007.45184027778</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>46007</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>46007.44025462963</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>46007</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>44778.5827662037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>46050.57241898148</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>46051.35024305555</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44494.57201388889</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>44973</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>44966.37489583333</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>44489</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>46049.55684027778</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>44762.39896990741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>46051.35872685185</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>45549.30641203704</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45549</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>46052.43975694444</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>44739.46486111111</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>44753.48469907408</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>45560.64267361111</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>44862</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>46052.43885416666</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>45470.61119212963</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>45086.60350694445</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>45310.6625</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>45040</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>45757</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>44829.96320601852</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>44956</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>45166.8479050926</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>44882.76155092593</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>45534.43813657408</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44893</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>45610.32993055556</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>44972</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>44882.76806712963</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>45009</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>45673</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>45062</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33495,7 +33495,7 @@
         <v>46059.57993055556</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33552,7 +33552,7 @@
         <v>46059.59456018519</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>46058.39168981482</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>45316</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>45342</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33780,7 +33780,7 @@
         <v>44713.65959490741</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>44439</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33894,7 +33894,7 @@
         <v>44314.59100694444</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33951,7 +33951,7 @@
         <v>45426</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34008,7 +34008,7 @@
         <v>45588.58637731482</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>45194</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34127,7 +34127,7 @@
         <v>45253</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34184,7 +34184,7 @@
         <v>45621.31460648148</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34241,7 +34241,7 @@
         <v>45559</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44817.34164351852</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45363.36378472222</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45559</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34479,7 +34479,7 @@
         <v>45236.34158564815</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34536,7 +34536,7 @@
         <v>45328</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34593,7 +34593,7 @@
         <v>45328</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34650,7 +34650,7 @@
         <v>45719</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>45360.39351851852</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34764,7 +34764,7 @@
         <v>45360</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         <v>45104</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34878,7 +34878,7 @@
         <v>45775</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34935,7 +34935,7 @@
         <v>45105</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34997,7 +34997,7 @@
         <v>45075</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35054,7 +35054,7 @@
         <v>44762</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         <v>44945.77724537037</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44606</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>45579</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44307</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35344,7 +35344,7 @@
         <v>44307</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35401,7 +35401,7 @@
         <v>45178.33199074074</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35458,7 +35458,7 @@
         <v>45068</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         <v>45536.30668981482</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35572,7 +35572,7 @@
         <v>45072.40635416667</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35629,7 +35629,7 @@
         <v>45196</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
         <v>45195</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>45082</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35805,7 +35805,7 @@
         <v>45193</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35862,7 +35862,7 @@
         <v>45264.46787037037</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>45085</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>45549</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>45091.57729166667</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>45110</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>45152.49695601852</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36209,7 +36209,7 @@
         <v>45755</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>45139.70096064815</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         <v>45169</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>45118</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>45178</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36494,7 +36494,7 @@
         <v>45062</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36556,7 +36556,7 @@
         <v>45201.33722222222</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36613,7 +36613,7 @@
         <v>45195</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36670,7 +36670,7 @@
         <v>45195</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36727,7 +36727,7 @@
         <v>45027.4649074074</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36784,7 +36784,7 @@
         <v>45602.76697916666</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36841,7 +36841,7 @@
         <v>45378</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36898,7 +36898,7 @@
         <v>45436.42820601852</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         <v>45350.6553125</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37012,7 +37012,7 @@
         <v>45350.66047453704</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37069,7 +37069,7 @@
         <v>45303</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37126,7 +37126,7 @@
         <v>45303</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>44974.86513888889</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>45560.64489583333</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37302,7 +37302,7 @@
         <v>44806</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37359,7 +37359,7 @@
         <v>44992.57134259259</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37416,7 +37416,7 @@
         <v>44992</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37478,7 +37478,7 @@
         <v>45246</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37535,7 +37535,7 @@
         <v>45629.85528935185</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37592,7 +37592,7 @@
         <v>44565.43053240741</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37649,7 +37649,7 @@
         <v>45237</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37706,7 +37706,7 @@
         <v>45190</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37763,7 +37763,7 @@
         <v>44774</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37820,7 +37820,7 @@
         <v>45545.91209490741</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37877,7 +37877,7 @@
         <v>44236</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37934,7 +37934,7 @@
         <v>45303</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37991,7 +37991,7 @@
         <v>45430.45837962963</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38048,7 +38048,7 @@
         <v>44956.49877314815</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38105,7 +38105,7 @@
         <v>45342</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38162,7 +38162,7 @@
         <v>45342.73237268518</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38219,7 +38219,7 @@
         <v>44973</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38281,7 +38281,7 @@
         <v>45428.28188657408</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38338,7 +38338,7 @@
         <v>45673</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         <v>45717.49084490741</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38452,7 +38452,7 @@
         <v>45717.49361111111</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38509,7 +38509,7 @@
         <v>45373.30533564815</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38566,7 +38566,7 @@
         <v>45724.30193287037</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38623,7 +38623,7 @@
         <v>44651</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38680,7 +38680,7 @@
         <v>45706</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38737,7 +38737,7 @@
         <v>45714</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38794,7 +38794,7 @@
         <v>45560.66334490741</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>45408.71054398148</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38913,7 +38913,7 @@
         <v>45097.30394675926</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38970,7 +38970,7 @@
         <v>45189</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39027,7 +39027,7 @@
         <v>45051.32775462963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39084,7 +39084,7 @@
         <v>44888.5009375</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39141,7 +39141,7 @@
         <v>45006</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39198,7 +39198,7 @@
         <v>45139.68210648148</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39255,7 +39255,7 @@
         <v>45076.54711805555</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
         <v>44819.91069444444</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>44658.63398148148</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         <v>45685.85379629629</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39483,7 +39483,7 @@
         <v>45545.3380787037</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39540,7 +39540,7 @@
         <v>45119.78310185186</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39597,7 +39597,7 @@
         <v>45201.33636574074</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39654,7 +39654,7 @@
         <v>44992.64908564815</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39716,7 +39716,7 @@
         <v>45063</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>45063</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39840,7 +39840,7 @@
         <v>45594.5827662037</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39897,7 +39897,7 @@
         <v>44748.82912037037</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>45078</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>45327.55049768519</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40068,7 +40068,7 @@
         <v>45600.49008101852</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40125,7 +40125,7 @@
         <v>44466</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40182,7 +40182,7 @@
         <v>44980</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40244,7 +40244,7 @@
         <v>45559</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44950.50173611111</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>45722.79815972222</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>45058</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>45560.64944444445</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40539,7 +40539,7 @@
         <v>45194</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40596,7 +40596,7 @@
         <v>45587.59994212963</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40653,7 +40653,7 @@
         <v>45118</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40710,7 +40710,7 @@
         <v>45772.28616898148</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40767,7 +40767,7 @@
         <v>45057.76679398148</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40824,7 +40824,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40881,7 +40881,7 @@
         <v>45012</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40938,7 +40938,7 @@
         <v>44902.48003472222</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40995,7 +40995,7 @@
         <v>45238</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41052,7 +41052,7 @@
         <v>45728</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41109,7 +41109,7 @@
         <v>45728</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41166,7 +41166,7 @@
         <v>45741</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41228,7 +41228,7 @@
         <v>45545.69033564815</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41290,7 +41290,7 @@
         <v>45590</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         <v>45229.43825231482</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41404,7 +41404,7 @@
         <v>45646.60135416667</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41461,7 +41461,7 @@
         <v>45104</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41523,7 +41523,7 @@
         <v>45104</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41585,7 +41585,7 @@
         <v>45574.3331712963</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41642,7 +41642,7 @@
         <v>45527.36466435185</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41699,7 +41699,7 @@
         <v>45743</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41756,7 +41756,7 @@
         <v>45743</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41813,7 +41813,7 @@
         <v>45531.73302083334</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41870,7 +41870,7 @@
         <v>44432</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41927,7 +41927,7 @@
         <v>45560</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41984,7 +41984,7 @@
         <v>44326</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42041,7 +42041,7 @@
         <v>45691</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42098,7 +42098,7 @@
         <v>45394</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42155,7 +42155,7 @@
         <v>45608.66543981482</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42212,7 +42212,7 @@
         <v>44966.755</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42269,7 +42269,7 @@
         <v>45104</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42331,7 +42331,7 @@
         <v>45502</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42388,7 +42388,7 @@
         <v>45785</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42450,7 +42450,7 @@
         <v>45567</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42507,7 +42507,7 @@
         <v>45785</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42569,7 +42569,7 @@
         <v>44419</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42631,7 +42631,7 @@
         <v>45527.36177083333</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42688,7 +42688,7 @@
         <v>45546</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42745,7 +42745,7 @@
         <v>45724.30535879629</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42802,7 +42802,7 @@
         <v>45579.47976851852</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         <v>44434.3265625</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42916,7 +42916,7 @@
         <v>45530</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42973,7 +42973,7 @@
         <v>45646.29060185186</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43030,7 +43030,7 @@
         <v>45699.5039699074</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43087,7 +43087,7 @@
         <v>45562.53795138889</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43144,7 +43144,7 @@
         <v>45594</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43206,7 +43206,7 @@
         <v>45551</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43263,7 +43263,7 @@
         <v>45280</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43320,7 +43320,7 @@
         <v>45791.70444444445</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43377,7 +43377,7 @@
         <v>45789.83464120371</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43434,7 +43434,7 @@
         <v>45545</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43491,7 +43491,7 @@
         <v>45792</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43548,7 +43548,7 @@
         <v>45791.81699074074</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43610,7 +43610,7 @@
         <v>45792</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>

--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45791.80519675926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45973</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>44425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>45093</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>45588.61237268519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>45756</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>46071.47552083333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44305</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44425</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44420.37090277778</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>44298</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45894</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45225</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>45559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45921.85089120371</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>45471.51613425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>44980.66219907408</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45559</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44998</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45012</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45152</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>45457.46716435185</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>44329.68653935185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44370</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44825.86511574074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44645</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44386.67550925926</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44307</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44386.56210648148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44649</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44880.59434027778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44630.70325231482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44860</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44880.59320601852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44316</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44432</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44676</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44510.5746875</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44504</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44848</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44827</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44657.85196759259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>44581</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>44592.40423611111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>44501</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>44753</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>44845.50974537037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>44462.89429398148</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>44447.38721064815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>44369.31922453704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44790.48775462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>44693.36934027778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>44608.45952546296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44860.34149305556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44825.83590277778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44762.42130787037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>44258</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44273.51204861111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>44300</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>44279.89136574074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>44340</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44311.88395833333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44311.35585648148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44336.82618055555</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44825.83820601852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44343</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44375</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44271</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44447.47489583334</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44565.30391203704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44300.3524537037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44284.76295138889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44474</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44286.44738425926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>44286.49776620371</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>44468</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44455.48934027777</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>44596</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44374</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44298.54538194444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44576.36556712963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44385</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44721</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44608.4568287037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>44326</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44420.36637731481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44420.37143518519</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44420.37256944444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44762</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44762.45920138889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>44882.76350694444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44532.34480324074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44434.39060185185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44762.44857638889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>44311.8830787037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>44494.78745370371</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44311</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44307</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44806.618125</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44414.41921296297</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44518.47239583333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44501.54438657407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44845.45305555555</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44886.65388888889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>44872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>44630</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>44694</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44504</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44853.64434027778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>44817</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>44638</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>44299.70222222222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44812.81410879629</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44371</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44343.4578587963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44386</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>44277.92020833334</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>44300.34657407407</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44637</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44258</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44600.65211805556</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44445.36540509259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44756</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44539</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44455.5429050926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>44586.4681712963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>44713</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>44455.45295138889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44762.44337962963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>44257</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44627</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44630.33892361111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>45706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>45602.65599537037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>45328</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>45251</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>45775</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>45121.74644675926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>45432</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>44903</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>45012</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>45677</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44903</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>45071.34355324074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44617</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>45747.70481481482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45261.67270833333</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44987.6947337963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44307</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45328</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45196</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45012</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45588.57842592592</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44944.77319444445</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>45341.70528935185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>45600</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>45621</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44987</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>45409.30665509259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>45049</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>45310.64620370371</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>45238.30886574074</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>45680.42825231481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44627</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>45600.49347222222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11589,7 +11589,7 @@
         <v>45128</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         <v>45625</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11703,7 +11703,7 @@
         <v>45692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>45098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44278</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>45691.49791666667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>45482</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>45482</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>45482</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>45363.44003472223</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>45600</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>45503</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>45739.350625</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>44987.69130787037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44987.6924074074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45670.47119212963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44998</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45061</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45432.29604166667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45714</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45201</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45201</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45115.29798611111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44908.36387731481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45169</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45147</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45012</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>45725.28071759259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44880.5609837963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>45717.4892824074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>45119</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44822.36966435185</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>45719</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>45426</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>45440.28597222222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>45440.28682870371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45884</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44655</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>45884</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>45670.40509259259</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>44957</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>45532.37809027778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>45299.49069444444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>45413.27694444444</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>45821.3246875</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>44939</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
         <v>45615.28113425926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>44754.30981481481</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>45169</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>44884.65101851852</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>45820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>45889.35428240741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>45823.52744212963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>45823.53152777778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>45888.84180555555</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45823.5349537037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45888.84373842592</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>45889.46090277778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45824.6219212963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>45888.46236111111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45827.38158564815</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>45618.37984953704</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>45414.3215625</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44312</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>45889.75552083334</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>45827.58221064815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45891.56857638889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44378</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45891.57991898148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45827.57775462963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45043.59479166667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45825.84473379629</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45892.64878472222</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>45892.64423611111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>45894</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>45884</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45402.33155092593</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45897.40251157407</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44600.48814814815</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>45832.4716550926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>45895.87712962963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>45832.59886574074</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>44427.49288194445</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>45896.67730324074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>45833.74839120371</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45646.35376157407</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>44966</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45099</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45006</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>45719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>45898.36068287037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>45835.50689814815</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>45835.52457175926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>45902</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>45118</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>45807.34241898148</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>45903.32563657407</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>45754</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>45838</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>45838</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>45841</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>45195</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>45838</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>45841</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>45749.91572916666</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>45722.83328703704</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>45743.29534722222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>45793.62430555555</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>45843.54188657407</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>45807.34141203704</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>45820</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>45840.43037037037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>45714.54234953703</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>45192.6025</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>45910.29336805556</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18318,7 +18318,7 @@
         <v>45910.30194444444</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>45843.43822916667</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>45225</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>45845.43273148148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>45646.61280092593</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>45903</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>45910</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>45537</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45845.48578703704</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>45915.64118055555</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45843</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45280.80202546297</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45915.65357638889</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>45915.6408912037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>45480.33395833334</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>45915.64569444444</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>45846.34766203703</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>45846.35939814815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>45915.64053240741</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         <v>45915.6357175926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>45915.6362037037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>45916.85170138889</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>45360.48655092593</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>45916.85402777778</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45559</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>45559.38451388889</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>45841</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>45916.8565162037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>45918.38861111111</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45918.62711805556</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>45625</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>45856.70304398148</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>45920.31640046297</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>45743.47136574074</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>45460.5112962963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>45923</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>45925.41440972222</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>45357.46925925926</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>45706.45446759259</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>45615.28605324074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>45807.36202546296</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>45929.74423611111</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>45104.99836805555</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>45930</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>45653</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>45280</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>45852</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>45280</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21109,7 +21109,7 @@
         <v>45932.60671296297</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>45932.46606481481</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>45932.46914351852</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>45932.47091435185</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45932.59349537037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>45932.60410879629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>45932.61268518519</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>45932.59810185185</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45583.69092592593</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>45104</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45932.4967824074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>45932.50133101852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>45932.50635416667</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>45877</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>45876.65175925926</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         <v>45932.49903935185</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>45111.7070949074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44848</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>45934.301875</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22257,7 +22257,7 @@
         <v>45714</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>44916</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22371,7 +22371,7 @@
         <v>45937.59077546297</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22428,7 +22428,7 @@
         <v>45715.76424768518</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22485,7 +22485,7 @@
         <v>45387.66466435185</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22542,7 +22542,7 @@
         <v>45937.60030092593</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>45884</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>45713.8870949074</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>45505</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>45266.36935185185</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45616.47561342592</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>45884</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>45053</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>45429</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>45757.56072916667</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>45775</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>45646.37528935185</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>45597.43244212963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>45947.65105324074</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>45630.88818287037</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45630.89168981482</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44944</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45947.65548611111</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>45259</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>45019.40739583333</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>45950.32462962963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44722</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>45950.38899305555</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>44756</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>45085.29188657407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>45951.32760416667</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>45012</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>45462</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>44253</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>45954</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44966.43552083334</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>45954</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>45272.47962962963</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>45299.4966087963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>45958</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>45958</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>45958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>45958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>45958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>45432.29446759259</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44966.37247685185</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>45001</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>45001</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>45505</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45959</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>45359.58695601852</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>45090.84431712963</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45589.89728009259</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25308,7 +25308,7 @@
         <v>45194</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45194.34755787037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>44279</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>44917.46122685185</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45168.85425925926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45071.43460648148</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>44375</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45597.42960648148</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45197</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45964</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>45099.46986111111</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25940,7 +25940,7 @@
         <v>44341</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45360.3878125</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>44565.36917824074</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26111,7 +26111,7 @@
         <v>44980</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44586.4669212963</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45610</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44595</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>44754.31150462963</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>44753.4906712963</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>45741.35186342592</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26520,7 +26520,7 @@
         <v>45972</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26577,7 +26577,7 @@
         <v>45166</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26634,7 +26634,7 @@
         <v>45001.84034722222</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26691,7 +26691,7 @@
         <v>45974.33921296296</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26748,7 +26748,7 @@
         <v>45646.58506944445</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>45002</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>45460.40002314815</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26919,7 +26919,7 @@
         <v>45975</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26976,7 +26976,7 @@
         <v>45978.69021990741</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27033,7 +27033,7 @@
         <v>45246.29589120371</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27090,7 +27090,7 @@
         <v>45978.6915162037</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>45194</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>45299.6503125</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>45001</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>45036</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>45981</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>45357.69003472223</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45054.52789351852</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45555.57261574074</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45394</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45581.33034722223</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45985.4794675926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45402.33591435185</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45381.30424768518</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27893,7 +27893,7 @@
         <v>45985.50297453703</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27950,7 +27950,7 @@
         <v>45985.35938657408</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28007,7 +28007,7 @@
         <v>45169.59612268519</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28064,7 +28064,7 @@
         <v>44704</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28121,7 +28121,7 @@
         <v>45986.64931712963</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28178,7 +28178,7 @@
         <v>45354.84703703703</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28235,7 +28235,7 @@
         <v>45986</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28292,7 +28292,7 @@
         <v>45986</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28349,7 +28349,7 @@
         <v>45009.37361111111</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>45009.37462962963</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>45702.56728009259</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>45992</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>45993.29938657407</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>45588.62737268519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28696,7 +28696,7 @@
         <v>45995.28260416666</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28753,7 +28753,7 @@
         <v>45995.32793981482</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>45855.33107638889</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28867,7 +28867,7 @@
         <v>45278.54491898148</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>45995.28373842593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>45602.53005787037</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>45754</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>45754</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44987.37960648148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>45117</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         <v>45480.34194444444</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>45302</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>45327.43086805556</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44729</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>46042.49203703704</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>46034</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>46042.50414351852</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29665,7 +29665,7 @@
         <v>45619.32981481482</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>45741.3621875</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         <v>46000.54221064815</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29841,7 +29841,7 @@
         <v>45714.53596064815</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29898,7 +29898,7 @@
         <v>45103</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>45337</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>44917.47427083334</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30074,7 +30074,7 @@
         <v>44925.53983796296</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>46043.57184027778</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>46048.65925925926</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30250,7 +30250,7 @@
         <v>46046.27957175926</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30307,7 +30307,7 @@
         <v>44778.5827662037</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30364,7 +30364,7 @@
         <v>44494.57201388889</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30421,7 +30421,7 @@
         <v>44973</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30483,7 +30483,7 @@
         <v>44966.37489583333</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30540,7 +30540,7 @@
         <v>44489</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30597,7 +30597,7 @@
         <v>46007</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30654,7 +30654,7 @@
         <v>46007.45184027778</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30711,7 +30711,7 @@
         <v>46007</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30768,7 +30768,7 @@
         <v>46007.44025462963</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30825,7 +30825,7 @@
         <v>46007</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30882,7 +30882,7 @@
         <v>44762.39896990741</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30944,7 +30944,7 @@
         <v>46050.57241898148</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>46051.35024305555</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45549.30641203704</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31115,7 +31115,7 @@
         <v>45549</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31172,7 +31172,7 @@
         <v>44739.46486111111</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44753.48469907408</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31286,7 +31286,7 @@
         <v>46049.55684027778</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31343,7 +31343,7 @@
         <v>45560.64267361111</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31405,7 +31405,7 @@
         <v>44862</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31462,7 +31462,7 @@
         <v>45470.61119212963</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31519,7 +31519,7 @@
         <v>46051.35872685185</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31576,7 +31576,7 @@
         <v>46052.43975694444</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31633,7 +31633,7 @@
         <v>45086.60350694445</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31690,7 +31690,7 @@
         <v>45310.6625</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31747,7 +31747,7 @@
         <v>45040</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31804,7 +31804,7 @@
         <v>45757</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31861,7 +31861,7 @@
         <v>44829.96320601852</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31918,7 +31918,7 @@
         <v>44956</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31975,7 +31975,7 @@
         <v>46052.43885416666</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32032,7 +32032,7 @@
         <v>45166.8479050926</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32089,7 +32089,7 @@
         <v>44882.76155092593</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         <v>45534.43813657408</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         <v>44893</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32260,7 +32260,7 @@
         <v>45610.32993055556</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32317,7 +32317,7 @@
         <v>44972</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32374,7 +32374,7 @@
         <v>44882.76806712963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32431,7 +32431,7 @@
         <v>45009</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32488,7 +32488,7 @@
         <v>45673</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32545,7 +32545,7 @@
         <v>45062</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32607,7 +32607,7 @@
         <v>46059.57993055556</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>46059.59456018519</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32721,7 +32721,7 @@
         <v>46058.39168981482</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         <v>45316</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32835,7 +32835,7 @@
         <v>45342</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32892,7 +32892,7 @@
         <v>44713.65959490741</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>44439</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33006,7 +33006,7 @@
         <v>44314.59100694444</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33063,7 +33063,7 @@
         <v>44739</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33120,7 +33120,7 @@
         <v>46062.6605324074</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>45426</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>45588.58637731482</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33296,7 +33296,7 @@
         <v>45194</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33353,7 +33353,7 @@
         <v>46062.65787037037</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33410,7 +33410,7 @@
         <v>45253</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33467,7 +33467,7 @@
         <v>45621.31460648148</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>45559</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44817.34164351852</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>45363.36378472222</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>45559</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33762,7 +33762,7 @@
         <v>45236.34158564815</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33819,7 +33819,7 @@
         <v>45328</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33876,7 +33876,7 @@
         <v>45328</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33933,7 +33933,7 @@
         <v>45719</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33990,7 +33990,7 @@
         <v>45360.39351851852</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34047,7 +34047,7 @@
         <v>45360</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34104,7 +34104,7 @@
         <v>45104</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34161,7 +34161,7 @@
         <v>45775</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34218,7 +34218,7 @@
         <v>46069.63502314815</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34275,7 +34275,7 @@
         <v>45105</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34337,7 +34337,7 @@
         <v>45075</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34394,7 +34394,7 @@
         <v>44762</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34456,7 +34456,7 @@
         <v>44945.77724537037</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34513,7 +34513,7 @@
         <v>44606</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34570,7 +34570,7 @@
         <v>45579</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34627,7 +34627,7 @@
         <v>44307</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         <v>44307</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34741,7 +34741,7 @@
         <v>46066.533125</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34798,7 +34798,7 @@
         <v>46071.47180555556</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34860,7 +34860,7 @@
         <v>45178.33199074074</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>45068</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34974,7 +34974,7 @@
         <v>45536.30668981482</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35031,7 +35031,7 @@
         <v>46071.48037037037</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35093,7 +35093,7 @@
         <v>45072.40635416667</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35150,7 +35150,7 @@
         <v>45196</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35207,7 +35207,7 @@
         <v>45195</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>45082</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35326,7 +35326,7 @@
         <v>45193</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35383,7 +35383,7 @@
         <v>46073</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>46073</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35507,7 +35507,7 @@
         <v>45264.46787037037</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35569,7 +35569,7 @@
         <v>45085</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35626,7 +35626,7 @@
         <v>45549</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35683,7 +35683,7 @@
         <v>45091.57729166667</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35740,7 +35740,7 @@
         <v>45110</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35797,7 +35797,7 @@
         <v>45152.49695601852</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35854,7 +35854,7 @@
         <v>45755</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35911,7 +35911,7 @@
         <v>45139.70096064815</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35968,7 +35968,7 @@
         <v>45169</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>45118</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>45178</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36139,7 +36139,7 @@
         <v>45062</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36201,7 +36201,7 @@
         <v>45201.33722222222</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36258,7 +36258,7 @@
         <v>45195</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36315,7 +36315,7 @@
         <v>45195</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36372,7 +36372,7 @@
         <v>45027.4649074074</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36429,7 +36429,7 @@
         <v>45602.76697916666</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36486,7 +36486,7 @@
         <v>45378</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>45436.42820601852</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36600,7 +36600,7 @@
         <v>45350.6553125</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36657,7 +36657,7 @@
         <v>45350.66047453704</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36714,7 +36714,7 @@
         <v>45303</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36771,7 +36771,7 @@
         <v>45303</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36828,7 +36828,7 @@
         <v>44974.86513888889</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36885,7 +36885,7 @@
         <v>45560.64489583333</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>44806</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37004,7 +37004,7 @@
         <v>44992.57134259259</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37061,7 +37061,7 @@
         <v>44992</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37123,7 +37123,7 @@
         <v>45246</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37180,7 +37180,7 @@
         <v>45629.85528935185</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37237,7 +37237,7 @@
         <v>44565.43053240741</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37294,7 +37294,7 @@
         <v>45237</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37351,7 +37351,7 @@
         <v>45190</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37408,7 +37408,7 @@
         <v>44774</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37465,7 +37465,7 @@
         <v>45545.91209490741</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37522,7 +37522,7 @@
         <v>45303</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37579,7 +37579,7 @@
         <v>45430.45837962963</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37636,7 +37636,7 @@
         <v>44956.49877314815</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37693,7 +37693,7 @@
         <v>45342</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37750,7 +37750,7 @@
         <v>45342.73237268518</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37807,7 +37807,7 @@
         <v>44973</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37869,7 +37869,7 @@
         <v>45428.28188657408</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37926,7 +37926,7 @@
         <v>45673</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37983,7 +37983,7 @@
         <v>45717.49084490741</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38040,7 +38040,7 @@
         <v>45717.49361111111</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38097,7 +38097,7 @@
         <v>45373.30533564815</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38154,7 +38154,7 @@
         <v>45724.30193287037</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38211,7 +38211,7 @@
         <v>44651</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38268,7 +38268,7 @@
         <v>45706</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38325,7 +38325,7 @@
         <v>45714</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38382,7 +38382,7 @@
         <v>45560.66334490741</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38444,7 +38444,7 @@
         <v>45408.71054398148</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>45097.30394675926</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38558,7 +38558,7 @@
         <v>45189</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38615,7 +38615,7 @@
         <v>45051.32775462963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38672,7 +38672,7 @@
         <v>44888.5009375</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>45006</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         <v>45139.68210648148</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38843,7 +38843,7 @@
         <v>45076.54711805555</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38900,7 +38900,7 @@
         <v>44819.91069444444</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38957,7 +38957,7 @@
         <v>44658.63398148148</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39014,7 +39014,7 @@
         <v>45685.85379629629</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39071,7 +39071,7 @@
         <v>45545.3380787037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39128,7 +39128,7 @@
         <v>45119.78310185186</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39185,7 +39185,7 @@
         <v>45201.33636574074</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39242,7 +39242,7 @@
         <v>44992.64908564815</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39304,7 +39304,7 @@
         <v>45063</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39366,7 +39366,7 @@
         <v>45063</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39428,7 +39428,7 @@
         <v>45594.5827662037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39485,7 +39485,7 @@
         <v>44748.82912037037</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39542,7 +39542,7 @@
         <v>45078</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39599,7 +39599,7 @@
         <v>45327.55049768519</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39656,7 +39656,7 @@
         <v>45600.49008101852</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39713,7 +39713,7 @@
         <v>44466</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39770,7 +39770,7 @@
         <v>44980</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>45559</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39894,7 +39894,7 @@
         <v>44950.50173611111</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39951,7 +39951,7 @@
         <v>45722.79815972222</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40008,7 +40008,7 @@
         <v>45058</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>45560.64944444445</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40127,7 +40127,7 @@
         <v>45194</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40184,7 +40184,7 @@
         <v>45587.59994212963</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40241,7 +40241,7 @@
         <v>45118</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40298,7 +40298,7 @@
         <v>45772.28616898148</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40355,7 +40355,7 @@
         <v>45057.76679398148</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40412,7 +40412,7 @@
         <v>45012</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40469,7 +40469,7 @@
         <v>45012</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40526,7 +40526,7 @@
         <v>44902.48003472222</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40583,7 +40583,7 @@
         <v>45238</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40640,7 +40640,7 @@
         <v>45728</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40697,7 +40697,7 @@
         <v>45728</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40754,7 +40754,7 @@
         <v>45741</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40816,7 +40816,7 @@
         <v>45545.69033564815</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40878,7 +40878,7 @@
         <v>45590</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40935,7 +40935,7 @@
         <v>45229.43825231482</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40992,7 +40992,7 @@
         <v>45646.60135416667</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41049,7 +41049,7 @@
         <v>45104</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41111,7 +41111,7 @@
         <v>45104</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>45574.3331712963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>45527.36466435185</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41287,7 +41287,7 @@
         <v>45743</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41344,7 +41344,7 @@
         <v>45743</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41401,7 +41401,7 @@
         <v>45531.73302083334</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41458,7 +41458,7 @@
         <v>44432</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41515,7 +41515,7 @@
         <v>45560</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41572,7 +41572,7 @@
         <v>44326</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41629,7 +41629,7 @@
         <v>45691</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>45394</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41743,7 +41743,7 @@
         <v>45608.66543981482</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44966.755</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>45104</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>45502</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41976,7 +41976,7 @@
         <v>45785</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42038,7 +42038,7 @@
         <v>45567</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42095,7 +42095,7 @@
         <v>45785</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44419</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>45527.36177083333</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>45546</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>45724.30535879629</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>45579.47976851852</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44434.3265625</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42504,7 +42504,7 @@
         <v>45530</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42561,7 +42561,7 @@
         <v>45646.29060185186</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42618,7 +42618,7 @@
         <v>45699.5039699074</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42675,7 +42675,7 @@
         <v>45562.53795138889</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42732,7 +42732,7 @@
         <v>45594</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42794,7 +42794,7 @@
         <v>45551</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42851,7 +42851,7 @@
         <v>45280</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42908,7 +42908,7 @@
         <v>45791.70444444445</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42965,7 +42965,7 @@
         <v>45789.83464120371</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>45545</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43079,7 +43079,7 @@
         <v>45792</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>45791.81699074074</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45792</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>45672.71278935186</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>44973</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43374,7 +43374,7 @@
         <v>45078</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43431,7 +43431,7 @@
         <v>45597.59402777778</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43488,7 +43488,7 @@
         <v>45194</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43545,7 +43545,7 @@
         <v>45247</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43602,7 +43602,7 @@
         <v>45579.48168981481</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43659,7 +43659,7 @@
         <v>45490</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43716,7 +43716,7 @@
         <v>45803</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43773,7 +43773,7 @@
         <v>45785</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43835,7 +43835,7 @@
         <v>45811.29984953703</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>45812.72872685185</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43949,7 +43949,7 @@
         <v>45813.42714120371</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>

--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45791.80519675926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45643</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45973</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>44425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>45093</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>45588.61237268519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>45756</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>46071.47552083333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44305</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44425</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44420.37090277778</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>44298</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45894</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>45225</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>45559</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45921.85089120371</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>45471.51613425926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>44980.66219907408</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45559</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44998</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45012</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45152</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>45457.46716435185</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>44329.68653935185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44370</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44825.86511574074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44645</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44386.67550925926</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44307</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44386.56210648148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>44649</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44880.59434027778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44630.70325231482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44860</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44880.59320601852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44316</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44432</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44676</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44510.5746875</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44504</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44848</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44827</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44657.85196759259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>44581</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>44592.40423611111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>44501</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>44753</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>44845.50974537037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>44462.89429398148</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>44447.38721064815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>44369.31922453704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44790.48775462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>44693.36934027778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>44608.45952546296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44860.34149305556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44825.83590277778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44762.42130787037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>44258</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44273.51204861111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>44300</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>44279.89136574074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>44340</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44311.88395833333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44311.35585648148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44336.82618055555</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44825.83820601852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44343</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44375</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44271</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44447.47489583334</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44565.30391203704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44300.3524537037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>44284.76295138889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44474</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44286.44738425926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>44286.49776620371</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>44468</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>44455.48934027777</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>44596</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44374</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44298.54538194444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44576.36556712963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44385</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44721</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44608.4568287037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>44326</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44420.36637731481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44420.37143518519</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44420.37256944444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44762</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>44762.45920138889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>44882.76350694444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44532.34480324074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44434.39060185185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44762.44857638889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>44311.8830787037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>44494.78745370371</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44311</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44307</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44806.618125</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44414.41921296297</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44518.47239583333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44501.54438657407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44845.45305555555</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44886.65388888889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>44872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>44630</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>44694</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44504</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44853.64434027778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>44817</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>44638</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>44299.70222222222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44812.81410879629</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44371</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44343.4578587963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44386</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>44277.92020833334</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>44300.34657407407</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44637</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44258</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44600.65211805556</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44445.36540509259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44756</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44539</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44455.5429050926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>44586.4681712963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>44713</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>44455.45295138889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44762.44337962963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>44257</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44627</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44630.33892361111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>45706</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>45602.65599537037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>45328</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>45251</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>45775</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>45121.74644675926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>45432</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>44903</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>45012</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>45677</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44903</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>45071.34355324074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44617</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>45747.70481481482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45261.67270833333</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>44987.6947337963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44307</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45328</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45196</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45012</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>45588.57842592592</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44944.77319444445</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>45341.70528935185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>45600</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>45621</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44987</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>45409.30665509259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>45049</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>45310.64620370371</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>45238.30886574074</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>45680.42825231481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44627</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>45600.49347222222</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11589,7 +11589,7 @@
         <v>45128</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         <v>45625</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11703,7 +11703,7 @@
         <v>45692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>45098</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44278</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>45691.49791666667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>45482</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>45482</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>45482</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>45363.44003472223</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>45600</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>45503</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>45739.350625</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>44987.69130787037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44987.6924074074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45670.47119212963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44998</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45061</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45432.29604166667</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45714</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45201</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45201</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45115.29798611111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>44908.36387731481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45169</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45147</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45012</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>45725.28071759259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44880.5609837963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>45717.4892824074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>45119</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>44822.36966435185</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>45719</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>45426</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>45440.28597222222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>45440.28682870371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45884</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44655</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>45884</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>45670.40509259259</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>44957</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>45532.37809027778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>45299.49069444444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>45413.27694444444</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>45821.3246875</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>44939</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
         <v>45615.28113425926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>44754.30981481481</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>45169</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>44884.65101851852</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>45820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>45889.35428240741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>45823.52744212963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>45823.53152777778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>45888.84180555555</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>45823.5349537037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>45888.84373842592</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>45889.46090277778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45824.6219212963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>45888.46236111111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>45827.38158564815</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>45618.37984953704</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>45414.3215625</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44312</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>45889.75552083334</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>45827.58221064815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45891.56857638889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44378</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45891.57991898148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45827.57775462963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>45043.59479166667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45825.84473379629</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>45892.64878472222</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>45892.64423611111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>45894</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>45884</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45402.33155092593</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45897.40251157407</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>44600.48814814815</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>45832.4716550926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>45895.87712962963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>45832.59886574074</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>44427.49288194445</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>45896.67730324074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>45833.74839120371</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45646.35376157407</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>44966</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>45099</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>45006</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>45719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>45898.36068287037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>45835.50689814815</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>45835.52457175926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>45902</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>45118</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>45807.34241898148</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>45903.32563657407</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>45754</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>45838</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>45838</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>45841</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>45195</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>45838</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>45841</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>45749.91572916666</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>45722.83328703704</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>45743.29534722222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>45793.62430555555</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>45843.54188657407</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>45807.34141203704</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>45820</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>45840.43037037037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>45714.54234953703</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>45192.6025</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>45910.29336805556</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18318,7 +18318,7 @@
         <v>45910.30194444444</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>45843.43822916667</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>45225</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>45845.43273148148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         <v>45646.61280092593</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>45903</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>45910</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>45537</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45845.48578703704</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18831,7 +18831,7 @@
         <v>45915.64118055555</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45843</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45280.80202546297</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45915.65357638889</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>45915.6408912037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>45480.33395833334</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>45915.64569444444</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>45846.34766203703</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>45846.35939814815</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         <v>45915.64053240741</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         <v>45915.6357175926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>45915.6362037037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>45916.85170138889</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>45360.48655092593</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>45916.85402777778</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45559</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>45559.38451388889</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>45841</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>45916.8565162037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>45918.38861111111</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>45918.62711805556</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>45625</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>45856.70304398148</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>45920.31640046297</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>45743.47136574074</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>45460.5112962963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>45923</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>45925.41440972222</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>45357.46925925926</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>45706.45446759259</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>45615.28605324074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>45807.36202546296</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>45929.74423611111</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>45104.99836805555</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>45930</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>45653</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>45280</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>45852</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         <v>45280</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21109,7 +21109,7 @@
         <v>45932.60671296297</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>45932.46606481481</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>45932.46914351852</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>45932.47091435185</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>45932.59349537037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>45932.60410879629</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>45932.61268518519</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>45932.59810185185</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45583.69092592593</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>45104</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45932.4967824074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>45932.50133101852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>45932.50635416667</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>45877</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>45876.65175925926</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         <v>45932.49903935185</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>45111.7070949074</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44848</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>45934.301875</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22257,7 +22257,7 @@
         <v>45714</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>44916</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22371,7 +22371,7 @@
         <v>45937.59077546297</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22428,7 +22428,7 @@
         <v>45715.76424768518</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22485,7 +22485,7 @@
         <v>45387.66466435185</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22542,7 +22542,7 @@
         <v>45937.60030092593</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>45884</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>45713.8870949074</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>45505</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>45266.36935185185</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45616.47561342592</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>45884</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>45053</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>45429</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>45757.56072916667</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>45775</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>45646.37528935185</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23251,7 +23251,7 @@
         <v>45597.43244212963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>45947.65105324074</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23365,7 +23365,7 @@
         <v>45630.88818287037</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45630.89168981482</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44944</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45947.65548611111</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>45259</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>45019.40739583333</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>45950.32462962963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23764,7 +23764,7 @@
         <v>44722</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23821,7 +23821,7 @@
         <v>45950.38899305555</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>44756</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23935,7 +23935,7 @@
         <v>45085.29188657407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>45951.32760416667</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>45012</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>45462</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>44253</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>45954</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44966.43552083334</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>45954</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>45272.47962962963</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>45299.4966087963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>45958</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>45958</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>45958</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>45958</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>45958</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>45432.29446759259</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44966.37247685185</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>45001</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>45001</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>45505</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45959</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>45359.58695601852</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>45090.84431712963</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45589.89728009259</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25308,7 +25308,7 @@
         <v>45194</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25365,7 +25365,7 @@
         <v>45194.34755787037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>44279</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>44917.46122685185</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>45168.85425925926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25593,7 +25593,7 @@
         <v>45071.43460648148</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25650,7 +25650,7 @@
         <v>44375</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25707,7 +25707,7 @@
         <v>45597.42960648148</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25764,7 +25764,7 @@
         <v>45197</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         <v>45964</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>45099.46986111111</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25940,7 +25940,7 @@
         <v>44341</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25997,7 +25997,7 @@
         <v>45360.3878125</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>44565.36917824074</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26111,7 +26111,7 @@
         <v>44980</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44586.4669212963</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>45610</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26287,7 +26287,7 @@
         <v>44595</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26344,7 +26344,7 @@
         <v>44754.31150462963</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26401,7 +26401,7 @@
         <v>44753.4906712963</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26458,7 +26458,7 @@
         <v>45741.35186342592</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26520,7 +26520,7 @@
         <v>45972</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26577,7 +26577,7 @@
         <v>45166</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26634,7 +26634,7 @@
         <v>45001.84034722222</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26691,7 +26691,7 @@
         <v>45974.33921296296</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26748,7 +26748,7 @@
         <v>45646.58506944445</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>45002</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>45460.40002314815</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26919,7 +26919,7 @@
         <v>45975</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26976,7 +26976,7 @@
         <v>45978.69021990741</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27033,7 +27033,7 @@
         <v>45246.29589120371</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27090,7 +27090,7 @@
         <v>45978.6915162037</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27147,7 +27147,7 @@
         <v>45194</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27204,7 +27204,7 @@
         <v>45299.6503125</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         <v>45001</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>45036</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>45981</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>45357.69003472223</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27494,7 +27494,7 @@
         <v>45054.52789351852</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>45555.57261574074</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45394</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45581.33034722223</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         <v>45985.4794675926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27779,7 +27779,7 @@
         <v>45402.33591435185</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27836,7 +27836,7 @@
         <v>45381.30424768518</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27893,7 +27893,7 @@
         <v>45985.50297453703</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27950,7 +27950,7 @@
         <v>45985.35938657408</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28007,7 +28007,7 @@
         <v>45169.59612268519</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28064,7 +28064,7 @@
         <v>44704</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28121,7 +28121,7 @@
         <v>45986.64931712963</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28178,7 +28178,7 @@
         <v>45354.84703703703</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28235,7 +28235,7 @@
         <v>45986</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28292,7 +28292,7 @@
         <v>45986</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28349,7 +28349,7 @@
         <v>45009.37361111111</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>45009.37462962963</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>45702.56728009259</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>45992</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>45993.29938657407</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>45588.62737268519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28696,7 +28696,7 @@
         <v>45995.28260416666</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28753,7 +28753,7 @@
         <v>45995.32793981482</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>45855.33107638889</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28867,7 +28867,7 @@
         <v>45278.54491898148</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>45995.28373842593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>45602.53005787037</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>45754</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>45754</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>44987.37960648148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>45117</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         <v>45480.34194444444</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>45302</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>45327.43086805556</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>44729</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>46042.49203703704</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29551,7 +29551,7 @@
         <v>46034</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
         <v>46042.50414351852</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29665,7 +29665,7 @@
         <v>45619.32981481482</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>45741.3621875</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29784,7 +29784,7 @@
         <v>46000.54221064815</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29841,7 +29841,7 @@
         <v>45714.53596064815</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29898,7 +29898,7 @@
         <v>45103</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>45337</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30017,7 +30017,7 @@
         <v>44917.47427083334</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30074,7 +30074,7 @@
         <v>44925.53983796296</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>46043.57184027778</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>46048.65925925926</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30250,7 +30250,7 @@
         <v>46046.27957175926</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30307,7 +30307,7 @@
         <v>44778.5827662037</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30364,7 +30364,7 @@
         <v>44494.57201388889</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30421,7 +30421,7 @@
         <v>44973</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30483,7 +30483,7 @@
         <v>44966.37489583333</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30540,7 +30540,7 @@
         <v>44489</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30597,7 +30597,7 @@
         <v>46007</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30654,7 +30654,7 @@
         <v>46007.45184027778</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30711,7 +30711,7 @@
         <v>46007</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30768,7 +30768,7 @@
         <v>46007.44025462963</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30825,7 +30825,7 @@
         <v>46007</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30882,7 +30882,7 @@
         <v>44762.39896990741</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30944,7 +30944,7 @@
         <v>46050.57241898148</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>46051.35024305555</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31058,7 +31058,7 @@
         <v>45549.30641203704</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31115,7 +31115,7 @@
         <v>45549</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31172,7 +31172,7 @@
         <v>44739.46486111111</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44753.48469907408</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31286,7 +31286,7 @@
         <v>46049.55684027778</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31343,7 +31343,7 @@
         <v>45560.64267361111</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31405,7 +31405,7 @@
         <v>44862</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31462,7 +31462,7 @@
         <v>45470.61119212963</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31519,7 +31519,7 @@
         <v>46051.35872685185</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31576,7 +31576,7 @@
         <v>46052.43975694444</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31633,7 +31633,7 @@
         <v>45086.60350694445</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31690,7 +31690,7 @@
         <v>45310.6625</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31747,7 +31747,7 @@
         <v>45040</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31804,7 +31804,7 @@
         <v>45757</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31861,7 +31861,7 @@
         <v>44829.96320601852</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31918,7 +31918,7 @@
         <v>44956</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31975,7 +31975,7 @@
         <v>46052.43885416666</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32032,7 +32032,7 @@
         <v>45166.8479050926</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32089,7 +32089,7 @@
         <v>44882.76155092593</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         <v>45534.43813657408</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         <v>44893</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32260,7 +32260,7 @@
         <v>45610.32993055556</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32317,7 +32317,7 @@
         <v>44972</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32374,7 +32374,7 @@
         <v>44882.76806712963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32431,7 +32431,7 @@
         <v>45009</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32488,7 +32488,7 @@
         <v>45673</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32545,7 +32545,7 @@
         <v>45062</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32607,7 +32607,7 @@
         <v>46059.57993055556</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32664,7 +32664,7 @@
         <v>46059.59456018519</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32721,7 +32721,7 @@
         <v>46058.39168981482</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32778,7 +32778,7 @@
         <v>45316</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32835,7 +32835,7 @@
         <v>45342</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32892,7 +32892,7 @@
         <v>44713.65959490741</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>44439</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33006,7 +33006,7 @@
         <v>44314.59100694444</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33063,7 +33063,7 @@
         <v>44739</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33120,7 +33120,7 @@
         <v>46062.6605324074</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>45426</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>45588.58637731482</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33296,7 +33296,7 @@
         <v>45194</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33353,7 +33353,7 @@
         <v>46062.65787037037</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33410,7 +33410,7 @@
         <v>45253</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33467,7 +33467,7 @@
         <v>45621.31460648148</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>45559</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>44817.34164351852</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         <v>45363.36378472222</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33700,7 +33700,7 @@
         <v>45559</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33762,7 +33762,7 @@
         <v>45236.34158564815</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33819,7 +33819,7 @@
         <v>45328</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33876,7 +33876,7 @@
         <v>45328</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33933,7 +33933,7 @@
         <v>45719</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33990,7 +33990,7 @@
         <v>45360.39351851852</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34047,7 +34047,7 @@
         <v>45360</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34104,7 +34104,7 @@
         <v>45104</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34161,7 +34161,7 @@
         <v>45775</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34218,7 +34218,7 @@
         <v>46069.63502314815</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34275,7 +34275,7 @@
         <v>45105</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34337,7 +34337,7 @@
         <v>45075</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34394,7 +34394,7 @@
         <v>44762</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34456,7 +34456,7 @@
         <v>44945.77724537037</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34513,7 +34513,7 @@
         <v>44606</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34570,7 +34570,7 @@
         <v>45579</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34627,7 +34627,7 @@
         <v>44307</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         <v>44307</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34741,7 +34741,7 @@
         <v>46066.533125</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34798,7 +34798,7 @@
         <v>46071.47180555556</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34860,7 +34860,7 @@
         <v>45178.33199074074</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>45068</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34974,7 +34974,7 @@
         <v>45536.30668981482</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35031,7 +35031,7 @@
         <v>46071.48037037037</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35093,7 +35093,7 @@
         <v>45072.40635416667</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35150,7 +35150,7 @@
         <v>45196</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35207,7 +35207,7 @@
         <v>45195</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35264,7 +35264,7 @@
         <v>45082</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35326,7 +35326,7 @@
         <v>45193</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35383,7 +35383,7 @@
         <v>46073</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>46073</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35507,7 +35507,7 @@
         <v>45264.46787037037</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35569,7 +35569,7 @@
         <v>45085</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35626,7 +35626,7 @@
         <v>45549</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35683,7 +35683,7 @@
         <v>45091.57729166667</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35740,7 +35740,7 @@
         <v>45110</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35797,7 +35797,7 @@
         <v>45152.49695601852</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35854,7 +35854,7 @@
         <v>45755</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35911,7 +35911,7 @@
         <v>45139.70096064815</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35968,7 +35968,7 @@
         <v>45169</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36025,7 +36025,7 @@
         <v>45118</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36082,7 +36082,7 @@
         <v>45178</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36139,7 +36139,7 @@
         <v>45062</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36201,7 +36201,7 @@
         <v>45201.33722222222</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36258,7 +36258,7 @@
         <v>45195</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36315,7 +36315,7 @@
         <v>45195</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36372,7 +36372,7 @@
         <v>45027.4649074074</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36429,7 +36429,7 @@
         <v>45602.76697916666</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36486,7 +36486,7 @@
         <v>45378</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>45436.42820601852</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36600,7 +36600,7 @@
         <v>45350.6553125</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36657,7 +36657,7 @@
         <v>45350.66047453704</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36714,7 +36714,7 @@
         <v>45303</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36771,7 +36771,7 @@
         <v>45303</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36828,7 +36828,7 @@
         <v>44974.86513888889</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36885,7 +36885,7 @@
         <v>45560.64489583333</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>44806</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37004,7 +37004,7 @@
         <v>44992.57134259259</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37061,7 +37061,7 @@
         <v>44992</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37123,7 +37123,7 @@
         <v>45246</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37180,7 +37180,7 @@
         <v>45629.85528935185</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37237,7 +37237,7 @@
         <v>44565.43053240741</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37294,7 +37294,7 @@
         <v>45237</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37351,7 +37351,7 @@
         <v>45190</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37408,7 +37408,7 @@
         <v>44774</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37465,7 +37465,7 @@
         <v>45545.91209490741</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37522,7 +37522,7 @@
         <v>45303</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37579,7 +37579,7 @@
         <v>45430.45837962963</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37636,7 +37636,7 @@
         <v>44956.49877314815</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37693,7 +37693,7 @@
         <v>45342</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37750,7 +37750,7 @@
         <v>45342.73237268518</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37807,7 +37807,7 @@
         <v>44973</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37869,7 +37869,7 @@
         <v>45428.28188657408</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37926,7 +37926,7 @@
         <v>45673</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37983,7 +37983,7 @@
         <v>45717.49084490741</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38040,7 +38040,7 @@
         <v>45717.49361111111</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38097,7 +38097,7 @@
         <v>45373.30533564815</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38154,7 +38154,7 @@
         <v>45724.30193287037</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38211,7 +38211,7 @@
         <v>44651</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38268,7 +38268,7 @@
         <v>45706</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38325,7 +38325,7 @@
         <v>45714</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38382,7 +38382,7 @@
         <v>45560.66334490741</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38444,7 +38444,7 @@
         <v>45408.71054398148</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>45097.30394675926</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38558,7 +38558,7 @@
         <v>45189</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38615,7 +38615,7 @@
         <v>45051.32775462963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38672,7 +38672,7 @@
         <v>44888.5009375</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>45006</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         <v>45139.68210648148</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38843,7 +38843,7 @@
         <v>45076.54711805555</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38900,7 +38900,7 @@
         <v>44819.91069444444</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38957,7 +38957,7 @@
         <v>44658.63398148148</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39014,7 +39014,7 @@
         <v>45685.85379629629</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39071,7 +39071,7 @@
         <v>45545.3380787037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39128,7 +39128,7 @@
         <v>45119.78310185186</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39185,7 +39185,7 @@
         <v>45201.33636574074</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39242,7 +39242,7 @@
         <v>44992.64908564815</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39304,7 +39304,7 @@
         <v>45063</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39366,7 +39366,7 @@
         <v>45063</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39428,7 +39428,7 @@
         <v>45594.5827662037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39485,7 +39485,7 @@
         <v>44748.82912037037</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39542,7 +39542,7 @@
         <v>45078</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39599,7 +39599,7 @@
         <v>45327.55049768519</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39656,7 +39656,7 @@
         <v>45600.49008101852</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39713,7 +39713,7 @@
         <v>44466</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39770,7 +39770,7 @@
         <v>44980</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>45559</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39894,7 +39894,7 @@
         <v>44950.50173611111</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39951,7 +39951,7 @@
         <v>45722.79815972222</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40008,7 +40008,7 @@
         <v>45058</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>45560.64944444445</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40127,7 +40127,7 @@
         <v>45194</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40184,7 +40184,7 @@
         <v>45587.59994212963</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40241,7 +40241,7 @@
         <v>45118</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40298,7 +40298,7 @@
         <v>45772.28616898148</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40355,7 +40355,7 @@
         <v>45057.76679398148</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40412,7 +40412,7 @@
         <v>45012</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40469,7 +40469,7 @@
         <v>45012</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40526,7 +40526,7 @@
         <v>44902.48003472222</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40583,7 +40583,7 @@
         <v>45238</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40640,7 +40640,7 @@
         <v>45728</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40697,7 +40697,7 @@
         <v>45728</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40754,7 +40754,7 @@
         <v>45741</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40816,7 +40816,7 @@
         <v>45545.69033564815</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40878,7 +40878,7 @@
         <v>45590</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40935,7 +40935,7 @@
         <v>45229.43825231482</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40992,7 +40992,7 @@
         <v>45646.60135416667</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41049,7 +41049,7 @@
         <v>45104</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41111,7 +41111,7 @@
         <v>45104</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>45574.3331712963</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>45527.36466435185</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41287,7 +41287,7 @@
         <v>45743</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41344,7 +41344,7 @@
         <v>45743</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41401,7 +41401,7 @@
         <v>45531.73302083334</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41458,7 +41458,7 @@
         <v>44432</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41515,7 +41515,7 @@
         <v>45560</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41572,7 +41572,7 @@
         <v>44326</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41629,7 +41629,7 @@
         <v>45691</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>45394</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41743,7 +41743,7 @@
         <v>45608.66543981482</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44966.755</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>45104</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>45502</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41976,7 +41976,7 @@
         <v>45785</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42038,7 +42038,7 @@
         <v>45567</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42095,7 +42095,7 @@
         <v>45785</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>44419</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>45527.36177083333</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>45546</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>45724.30535879629</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>45579.47976851852</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>44434.3265625</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42504,7 +42504,7 @@
         <v>45530</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42561,7 +42561,7 @@
         <v>45646.29060185186</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42618,7 +42618,7 @@
         <v>45699.5039699074</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42675,7 +42675,7 @@
         <v>45562.53795138889</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42732,7 +42732,7 @@
         <v>45594</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42794,7 +42794,7 @@
         <v>45551</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42851,7 +42851,7 @@
         <v>45280</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42908,7 +42908,7 @@
         <v>45791.70444444445</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42965,7 +42965,7 @@
         <v>45789.83464120371</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>45545</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43079,7 +43079,7 @@
         <v>45792</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>45791.81699074074</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45792</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>45672.71278935186</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>44973</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43374,7 +43374,7 @@
         <v>45078</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43431,7 +43431,7 @@
         <v>45597.59402777778</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43488,7 +43488,7 @@
         <v>45194</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43545,7 +43545,7 @@
         <v>45247</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43602,7 +43602,7 @@
         <v>45579.48168981481</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43659,7 +43659,7 @@
         <v>45490</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43716,7 +43716,7 @@
         <v>45803</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43773,7 +43773,7 @@
         <v>45785</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43835,7 +43835,7 @@
         <v>45811.29984953703</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>45812.72872685185</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43949,7 +43949,7 @@
         <v>45813.42714120371</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>

--- a/Översikt RONNEBY.xlsx
+++ b/Översikt RONNEBY.xlsx
@@ -575,7 +575,7 @@
         <v>45791.80519675926</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45973</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>45643</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>44425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>45588.61237268519</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45756</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>45093</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>46071.47552083333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44305</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44284</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44425</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44344</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44420.37090277778</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>44298</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45559</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45894</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>44998</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45012</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>45921.85089120371</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>45559</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45152</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45225</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>44980.66219907408</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45471.51613425926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>45457.46716435185</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>44329.68653935185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44546</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44370</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44825.86511574074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44645</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44386.67550925926</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44307</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44649</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44386.56210648148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44880.59434027778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44630.70325231482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44860</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>44880.59320601852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44316</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>44432</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>44676</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>44510.5746875</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>44504</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>44848</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>44451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>44827</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>44657.85196759259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>44581</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>44592.40423611111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>44501</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>44753</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>44845.50974537037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>44462.89429398148</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>44447.38721064815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>44369.31922453704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44790.48775462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>44608.45952546296</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4669,7 +4669,7 @@
         <v>44860.34149305556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         <v>44693.36934027778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44825.83590277778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>44762.42130787037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>44258</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44273.51204861111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>44300</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>44279.89136574074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>44340</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>44311.88395833333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>44311.35585648148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44825.83820601852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>44336.82618055555</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>44343</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44375</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44271</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44503</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44300.3524537037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44490</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44259</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44284.76295138889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>44474</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44286.44738425926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>44286.49776620371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>44468</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>44447.47489583334</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>44455.48934027777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44565.30391203704</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>44596</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44374</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44576.36556712963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>44298.54538194444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44385</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44721</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44608.4568287037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>44326</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44762</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44762.45920138889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>44882.76350694444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>44420.36637731481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>44420.37143518519</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>44420.37256944444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44532.34480324074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>44434.39060185185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>44762.44857638889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>44311.8830787037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>44311</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44307</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44494.78745370371</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44806.618125</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44414.41921296297</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44518.47239583333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44501.54438657407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44845.45305555555</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>44872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>44886.65388888889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>44630</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>44694</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44504</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44853.64434027778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>44817</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>44638</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>44299.70222222222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>44812.81410879629</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44371</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44343.4578587963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44386</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>44277.92020833334</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>44300.34657407407</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44300</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44637</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44258</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44600.65211805556</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44445.36540509259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44539</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44756</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44586.4681712963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>44455.5429050926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>44713</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>44455.45295138889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44865</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44762.44337962963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>44257</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>44494</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44627</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>44630.33892361111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>45719</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>45719</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>45196</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>45725.28071759259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>45714</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44778.5827662037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>44279</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>45360</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>45532.37809027778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>45536.30668981482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>45621</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>45310.6625</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>45342</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>45342.73237268518</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>44893</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10553,7 +10553,7 @@
         <v>45378</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10610,7 +10610,7 @@
         <v>44806</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         <v>45051.32775462963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>44307</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         <v>45259</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>45238</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>45426</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>45549</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>45381.30424768518</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>45754</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11123,7 +11123,7 @@
         <v>45754</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11180,7 +11180,7 @@
         <v>45253</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11237,7 +11237,7 @@
         <v>44957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>45086.60350694445</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
         <v>45261.67270833333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>45121.74644675926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>44903</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>44884.65101851852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>45099</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44817.34164351852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>45328</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>45600</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>44595</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>45505</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>45012</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44944.77319444445</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>44980</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>45303</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>45619.32981481482</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>45426</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>45597.43244212963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45280.80202546297</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44992.64908564815</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>45646.61280092593</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>45589.89728009259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>45559</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>45559.38451388889</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         <v>45490</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12744,7 +12744,7 @@
         <v>45884</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44939</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44903</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>45884</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45884</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>45884</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45677</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45785</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>45387.66466435185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>45888.46236111111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44627</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>45616.47561342592</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>45178.33199074074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>45602.65599537037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>45757.56072916667</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>45551</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44489</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45811.29984953703</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44565.36917824074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45812.72872685185</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45103</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>45813.42714120371</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>45104.99836805555</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>45888.84180555555</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>45889.46090277778</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>45505</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>45889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>45889.35428240741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>45888.84373842592</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         <v>45192.6025</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>45194</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         <v>45194.34755787037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         <v>45889.75552083334</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>45894</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>45892.64878472222</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>45891.56857638889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>45892.64423611111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>45673</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>45197</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45722.79815972222</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45884</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>45891.57991898148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45583.69092592593</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>45579</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>45823.5349537037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>45820</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>45824.6219212963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>45413.27694444444</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>45821.3246875</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>45823.52744212963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         <v>45823.53152777778</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
         <v>45560.64267361111</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>45895.87712962963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>45588.58637731482</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>44944</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>45896.67730324074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>45897.40251157407</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>45071.34355324074</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>45825.84473379629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>45898.36068287037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>45827.58221064815</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45827.38158564815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>45827.57775462963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>45054.52789351852</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>45807.34241898148</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>44973</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45238.30886574074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>45902</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>45903.32563657407</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>45832.4716550926</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>45646.37528935185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>45091.57729166667</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>45832.59886574074</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44754.30981481481</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>45722.83328703704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44655</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>45739.350625</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>45833.74839120371</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>45838</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>45838</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>45559</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17471,7 +17471,7 @@
         <v>45838</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17528,7 +17528,7 @@
         <v>45835.50689814815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17585,7 +17585,7 @@
         <v>45835.52457175926</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>45068</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17699,7 +17699,7 @@
         <v>45841</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>45841</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
         <v>45280</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45085</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>45009.37361111111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>45009.37462962963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>45903</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>45012</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>45840.43037037037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>44966.37489583333</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         <v>45749.91572916666</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18331,7 +18331,7 @@
         <v>45743.29534722222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>45793.62430555555</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>45807.34141203704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>45299.49069444444</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>45910</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18616,7 +18616,7 @@
         <v>45328</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18673,7 +18673,7 @@
         <v>45328</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
         <v>45820</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18787,7 +18787,7 @@
         <v>45843.54188657407</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18844,7 +18844,7 @@
         <v>45910.29336805556</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18901,7 +18901,7 @@
         <v>45910.30194444444</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18958,7 +18958,7 @@
         <v>45009</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19015,7 +19015,7 @@
         <v>45618.37984953704</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>45846.34766203703</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19129,7 +19129,7 @@
         <v>45846.35939814815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         <v>45480.34194444444</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         <v>45845.48578703704</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19300,7 +19300,7 @@
         <v>45843</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19357,7 +19357,7 @@
         <v>45328</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         <v>45845.43273148148</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19471,7 +19471,7 @@
         <v>45537</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19528,7 +19528,7 @@
         <v>45843.43822916667</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19585,7 +19585,7 @@
         <v>45061</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         <v>44713.65959490741</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19699,7 +19699,7 @@
         <v>45915.64118055555</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>45841</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>45166.8479050926</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>45915.6408912037</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19937,7 +19937,7 @@
         <v>45915.6362037037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>45856.70304398148</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>45915.6357175926</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>45915.65357638889</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>45646.60135416667</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>45915.64053240741</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>45915.64569444444</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45001</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>45916.8565162037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>45918.38861111111</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>45916.85170138889</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>45918.62711805556</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>45916.85402777778</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>45646.35376157407</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20760,7 +20760,7 @@
         <v>45615.28605324074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20817,7 +20817,7 @@
         <v>45178</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20874,7 +20874,7 @@
         <v>45357.46925925926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         <v>45757</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
         <v>45920.31640046297</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45117</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45923</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45807.36202546296</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>44307</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>45925.41440972222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21330,7 +21330,7 @@
         <v>45706.45446759259</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21387,7 +21387,7 @@
         <v>45930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
         <v>45653</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         <v>45929.74423611111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>44822.36966435185</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>45852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>45932.46606481481</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>45932.46914351852</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>45932.47091435185</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>45932.59810185185</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21920,7 +21920,7 @@
         <v>45932.60410879629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45706</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>44307</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>45932.49903935185</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45876.65175925926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>45932.4967824074</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>45932.50133101852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>45932.50635416667</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>45680.42825231481</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>45877</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44987</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>45715.76424768518</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>45932.60671296297</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44739.46486111111</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>45482</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>45482</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>45482</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>45932.59349537037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45932.61268518519</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>45934.301875</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44375</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>45085.29188657407</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>44966</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>45193</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>45194</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>45555.57261574074</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>44748.82912037037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>45743.47136574074</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23566,7 +23566,7 @@
         <v>45937.59077546297</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23623,7 +23623,7 @@
         <v>45937.60030092593</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         <v>45670.40509259259</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>45754</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23794,7 +23794,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         <v>45772.28616898148</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23908,7 +23908,7 @@
         <v>44862</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
         <v>45264.46787037037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44917.46122685185</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>45621.31460648148</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>45090.84431712963</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>45947.65548611111</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>45950.38899305555</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>44882.76155092593</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>45950.32462962963</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44466</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>45947.65105324074</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>45266.36935185185</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>44925.53983796296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>44880.5609837963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>45196</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>45600.49347222222</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>44888.5009375</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>45951.32760416667</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45954</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>45954</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>45436.42820601852</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>44966.43552083334</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>45958</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>45958</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>45958</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>45303</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>45303</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45194</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>45118</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>45341.70528935185</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45958</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>45958</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>45168.85425925926</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>45342</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>45959</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>45139.68210648148</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>45560.64489583333</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         <v>45559</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45104</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>45110</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44998</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45964</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26332,7 +26332,7 @@
         <v>45147</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26389,7 +26389,7 @@
         <v>45118</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26446,7 +26446,7 @@
         <v>45602.76697916666</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26503,7 +26503,7 @@
         <v>45062</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>44753.4906712963</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>45002</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>45078</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>45429</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26793,7 +26793,7 @@
         <v>45480.33395833334</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>45974.33921296296</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>45152.49695601852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>45581.33034722223</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>45972</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>45615.28113425926</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>45119</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27192,7 +27192,7 @@
         <v>44494.57201388889</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>45978.6915162037</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>45975</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45706</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45104</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>45460.40002314815</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>45978.69021990741</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>45741.35186342592</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>45719</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27715,7 +27715,7 @@
         <v>45409.30665509259</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27772,7 +27772,7 @@
         <v>45115.29798611111</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>45316</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>45981</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>45063</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>45545.69033564815</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>45670.47119212963</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28124,7 +28124,7 @@
         <v>45588.57842592592</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>45986</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>45986</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>45985.50297453703</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28357,7 +28357,7 @@
         <v>45986.64931712963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>45985.4794675926</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>45534.43813657408</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28528,7 +28528,7 @@
         <v>45775</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28585,7 +28585,7 @@
         <v>45118</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28642,7 +28642,7 @@
         <v>45600.49008101852</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>45985.35938657408</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         <v>45610.32993055556</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>45992</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28870,7 +28870,7 @@
         <v>45169</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28927,7 +28927,7 @@
         <v>45747.70481481482</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28984,7 +28984,7 @@
         <v>45169.59612268519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29041,7 +29041,7 @@
         <v>45993.29938657407</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29098,7 +29098,7 @@
         <v>45549.30641203704</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>45549</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>45049</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>45855.33107638889</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>45995.28373842593</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>45995.28260416666</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>45713.8870949074</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>45995.32793981482</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>45076.54711805555</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>46000.54221064815</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44606</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44829.96320601852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44762.39896990741</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>45194</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>44658.63398148148</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29958,7 +29958,7 @@
         <v>45646.58506944445</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30015,7 +30015,7 @@
         <v>45717.4892824074</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>44565.43053240741</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>46042.49203703704</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>45691.49791666667</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>45755</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>45190</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>45201.33636574074</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>46042.50414351852</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>44600.48814814815</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>46034</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>46043.57184027778</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>45440.28597222222</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>45440.28682870371</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>45432</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>45428.28188657408</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>45673</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>46048.65925925926</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>45432.29604166667</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>46046.27957175926</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44586.4669212963</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>46007</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>46007.44025462963</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>46049.55684027778</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>46007</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>46007</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>46007.45184027778</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44753.48469907408</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31554,7 +31554,7 @@
         <v>45237</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31611,7 +31611,7 @@
         <v>44729</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31668,7 +31668,7 @@
         <v>45741</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>46051.35024305555</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>45246</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         <v>46050.57241898148</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
         <v>46051.35872685185</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>45702.56728009259</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>45201</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>45714</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>46052.43975694444</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>46052.43885416666</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>45724.30193287037</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44704</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>45251</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44819.91069444444</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44762</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32538,7 +32538,7 @@
         <v>45195</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>46058.39168981482</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32652,7 +32652,7 @@
         <v>44882.76806712963</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32709,7 +32709,7 @@
         <v>45169</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>45775</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>45299.6503125</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>45189</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>45460.5112962963</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>46062.65787037037</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>46059.59456018519</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>46059.57993055556</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45299.4966087963</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>45302</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>44739</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45099.46986111111</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45714</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45310.64620370371</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>45503</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>46066.533125</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>44987.6947337963</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33678,7 +33678,7 @@
         <v>46069.63502314815</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>46071.47180555556</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33797,7 +33797,7 @@
         <v>46071.48037037037</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         <v>45201</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33916,7 +33916,7 @@
         <v>45071.43460648148</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33973,7 +33973,7 @@
         <v>45597.42960648148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34030,7 +34030,7 @@
         <v>45128</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34087,7 +34087,7 @@
         <v>45560.64944444445</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>44848</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>45728</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34263,7 +34263,7 @@
         <v>45728</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34320,7 +34320,7 @@
         <v>45432.29446759259</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34377,7 +34377,7 @@
         <v>44956</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34434,7 +34434,7 @@
         <v>45625</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34491,7 +34491,7 @@
         <v>44987.69130787037</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34548,7 +34548,7 @@
         <v>44987.6924074074</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         <v>45470.61119212963</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34662,7 +34662,7 @@
         <v>45360.48655092593</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34719,7 +34719,7 @@
         <v>45225</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34776,7 +34776,7 @@
         <v>44378</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34833,7 +34833,7 @@
         <v>46073</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34895,7 +34895,7 @@
         <v>46073</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34957,7 +34957,7 @@
         <v>45327.55049768519</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>45354.84703703703</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35071,7 +35071,7 @@
         <v>45027.4649074074</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35128,7 +35128,7 @@
         <v>44980</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35190,7 +35190,7 @@
         <v>45280</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35247,7 +35247,7 @@
         <v>44917.47427083334</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35304,7 +35304,7 @@
         <v>45166</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35361,7 +35361,7 @@
         <v>44439</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35418,7 +35418,7 @@
         <v>46078.60730324074</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35475,7 +35475,7 @@
         <v>44651</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35532,7 +35532,7 @@
         <v>46078.60055555555</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35589,7 +35589,7 @@
         <v>46078.60232638889</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35646,7 +35646,7 @@
         <v>46062</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35703,7 +35703,7 @@
         <v>44966.37247685185</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35760,7 +35760,7 @@
         <v>46078.60622685185</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35817,7 +35817,7 @@
         <v>45001</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35874,7 +35874,7 @@
         <v>46077.64853009259</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35936,7 +35936,7 @@
         <v>44945.77724537037</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>45414.3215625</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         <v>44312</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36107,7 +36107,7 @@
         <v>46078.60398148148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36164,7 +36164,7 @@
         <v>44992.57134259259</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>44992</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36283,7 +36283,7 @@
         <v>46079.65364583334</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36340,7 +36340,7 @@
         <v>45006</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>45201.33722222222</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>45195</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>45195</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>45402.33155092593</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>45139.70096064815</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>44617</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         <v>44987.37960648148</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36796,7 +36796,7 @@
         <v>46079.60912037037</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36853,7 +36853,7 @@
         <v>46079.6609837963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36910,7 +36910,7 @@
         <v>46079.65570601852</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36967,7 +36967,7 @@
         <v>45272.47962962963</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37024,7 +37024,7 @@
         <v>45062</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37086,7 +37086,7 @@
         <v>45111.7070949074</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37143,7 +37143,7 @@
         <v>45545.3380787037</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37200,7 +37200,7 @@
         <v>45363.44003472223</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37257,7 +37257,7 @@
         <v>45006</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37314,7 +37314,7 @@
         <v>44314.59100694444</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>45082</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37433,7 +37433,7 @@
         <v>45594.5827662037</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37490,7 +37490,7 @@
         <v>45587.59994212963</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37547,7 +37547,7 @@
         <v>45012</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37604,7 +37604,7 @@
         <v>45012</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>45246.29589120371</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37718,7 +37718,7 @@
         <v>45057.76679398148</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>44278</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37832,7 +37832,7 @@
         <v>45063</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>45104</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37951,7 +37951,7 @@
         <v>45560.66334490741</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>45105</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>45001.84034722222</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44974.86513888889</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38189,7 +38189,7 @@
         <v>45602.53005787037</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38246,7 +38246,7 @@
         <v>44722</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38303,7 +38303,7 @@
         <v>45394</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>44902.48003472222</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38417,7 +38417,7 @@
         <v>45373.30533564815</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38474,7 +38474,7 @@
         <v>45359.58695601852</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38531,7 +38531,7 @@
         <v>45360.39351851852</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>44754.31150462963</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
         <v>45072.40635416667</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>45053</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38759,7 +38759,7 @@
         <v>45097.30394675926</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38816,7 +38816,7 @@
         <v>45559</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>45462</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>44956.49877314815</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>45075</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>45058</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>45327.43086805556</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>45402.33591435185</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39220,7 +39220,7 @@
         <v>45775</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39277,7 +39277,7 @@
         <v>45012</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39334,7 +39334,7 @@
         <v>45012</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39391,7 +39391,7 @@
         <v>44756</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39448,7 +39448,7 @@
         <v>45629.85528935185</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39505,7 +39505,7 @@
         <v>45590</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39562,7 +39562,7 @@
         <v>45717.49084490741</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         <v>45717.49361111111</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39676,7 +39676,7 @@
         <v>45098</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39733,7 +39733,7 @@
         <v>45337</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39790,7 +39790,7 @@
         <v>45360.3878125</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39847,7 +39847,7 @@
         <v>44341</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39904,7 +39904,7 @@
         <v>45625</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39961,7 +39961,7 @@
         <v>45714.54234953703</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40018,7 +40018,7 @@
         <v>45236.34158564815</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40075,7 +40075,7 @@
         <v>45001</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40132,7 +40132,7 @@
         <v>45195</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40189,7 +40189,7 @@
         <v>45350.6553125</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40246,7 +40246,7 @@
         <v>45350.66047453704</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40303,7 +40303,7 @@
         <v>45545.91209490741</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40360,7 +40360,7 @@
         <v>44774</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40417,7 +40417,7 @@
         <v>45169</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40474,7 +40474,7 @@
         <v>44427.49288194445</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40531,7 +40531,7 @@
         <v>45714.53596064815</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40588,7 +40588,7 @@
         <v>45630.88818287037</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40645,7 +40645,7 @@
         <v>45630.89168981482</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40702,7 +40702,7 @@
         <v>45588.62737268519</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40764,7 +40764,7 @@
         <v>44908.36387731481</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40821,7 +40821,7 @@
         <v>45430.45837962963</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40878,7 +40878,7 @@
         <v>45408.71054398148</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40935,7 +40935,7 @@
         <v>45610</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40992,7 +40992,7 @@
         <v>44973</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41054,7 +41054,7 @@
         <v>45278.54491898148</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41111,7 +41111,7 @@
         <v>45019.40739583333</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41168,7 +41168,7 @@
         <v>45363.36378472222</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41225,7 +41225,7 @@
         <v>45036</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41282,7 +41282,7 @@
         <v>45119.78310185186</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41339,7 +41339,7 @@
         <v>45229.43825231482</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41396,7 +41396,7 @@
         <v>45600</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41453,7 +41453,7 @@
         <v>45040</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44950.50173611111</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>45692</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>45043.59479166667</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41681,7 +41681,7 @@
         <v>45741.3621875</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41743,7 +41743,7 @@
         <v>45685.85379629629</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>45357.69003472223</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41862,7 +41862,7 @@
         <v>44972</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>45560</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41976,7 +41976,7 @@
         <v>45531.73302083334</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42033,7 +42033,7 @@
         <v>45743</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42090,7 +42090,7 @@
         <v>45394</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42147,7 +42147,7 @@
         <v>44432</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42204,7 +42204,7 @@
         <v>45104</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42266,7 +42266,7 @@
         <v>45574.3331712963</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42323,7 +42323,7 @@
         <v>45104</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>45743</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42442,7 +42442,7 @@
         <v>45691</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         <v>45608.66543981482</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42556,7 +42556,7 @@
         <v>45502</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42613,7 +42613,7 @@
         <v>44966.755</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42670,7 +42670,7 @@
         <v>44326</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42727,7 +42727,7 @@
         <v>45527.36466435185</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42784,7 +42784,7 @@
         <v>45567</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42841,7 +42841,7 @@
         <v>44419</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42903,7 +42903,7 @@
         <v>45785</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42965,7 +42965,7 @@
         <v>45724.30535879629</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>45551</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43079,7 +43079,7 @@
         <v>45785</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45579.47976851852</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45530</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>45562.53795138889</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>45527.36177083333</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>45646.29060185186</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>45280</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43483,7 +43483,7 @@
         <v>45699.5039699074</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>44434.3265625</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43597,7 +43597,7 @@
         <v>45546</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43654,7 +43654,7 @@
         <v>45594</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43716,7 +43716,7 @@
         <v>45789.83464120371</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43773,7 +43773,7 @@
         <v>45792</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43830,7 +43830,7 @@
         <v>45791.70444444445</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43887,7 +43887,7 @@
         <v>45792</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43944,7 +43944,7 @@
         <v>45791.81699074074</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44006,7 +44006,7 @@
         <v>45545</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44063,7 +44063,7 @@
         <v>45597.59402777778</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44120,7 +44120,7 @@
         <v>45672.71278935186</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44177,7 +44177,7 @@
         <v>44973</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44239,7 +44239,7 @@
         <v>45194</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44296,7 +44296,7 @@
         <v>45078</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44353,7 +44353,7 @@
         <v>45247</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44410,7 +44410,7 @@
         <v>45579.48168981481</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44467,7 +44467,7 @@
         <v>45803</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
